--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>250.1</v>
+        <v>238</v>
       </c>
       <c r="C2" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="D2" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="E2" t="n">
-        <v>250.1</v>
+        <v>238</v>
       </c>
       <c r="F2" t="n">
-        <v>1053.3549</v>
+        <v>2287.0411</v>
       </c>
       <c r="G2" t="n">
-        <v>248.0066666666667</v>
+        <v>-12260.31413545378</v>
       </c>
       <c r="H2" t="n">
-        <v>243.745</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="C3" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="D3" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="E3" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>1274.2061</v>
+        <v>158.4542</v>
       </c>
       <c r="G3" t="n">
-        <v>248.28</v>
+        <v>-12260.31413545378</v>
       </c>
       <c r="H3" t="n">
-        <v>243.88</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="C4" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="D4" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="E4" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="F4" t="n">
-        <v>487.1461</v>
+        <v>114</v>
       </c>
       <c r="G4" t="n">
-        <v>248.4866666666667</v>
+        <v>-12260.31413545378</v>
       </c>
       <c r="H4" t="n">
-        <v>244.065</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="C5" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="D5" t="n">
-        <v>250.9</v>
+        <v>240</v>
       </c>
       <c r="E5" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="F5" t="n">
-        <v>238</v>
+        <v>2232.6697</v>
       </c>
       <c r="G5" t="n">
-        <v>248.76</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H5" t="n">
-        <v>244.25</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="C6" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="D6" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="E6" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
-        <v>40.862</v>
+        <v>6820.9712</v>
       </c>
       <c r="G6" t="n">
-        <v>249.08</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H6" t="n">
-        <v>244.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>250.8</v>
+        <v>240</v>
       </c>
       <c r="C7" t="n">
-        <v>254.9</v>
+        <v>240</v>
       </c>
       <c r="D7" t="n">
-        <v>254.9</v>
+        <v>240</v>
       </c>
       <c r="E7" t="n">
-        <v>250.8</v>
+        <v>240</v>
       </c>
       <c r="F7" t="n">
-        <v>1180</v>
+        <v>3988.1964</v>
       </c>
       <c r="G7" t="n">
-        <v>249.7133333333333</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H7" t="n">
-        <v>244.565</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="C8" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="D8" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="E8" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="F8" t="n">
-        <v>199.95</v>
+        <v>2389.0487</v>
       </c>
       <c r="G8" t="n">
-        <v>249.9333333333333</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H8" t="n">
-        <v>244.7016666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>253</v>
+        <v>239.3</v>
       </c>
       <c r="C9" t="n">
-        <v>252</v>
+        <v>239.3</v>
       </c>
       <c r="D9" t="n">
-        <v>253</v>
+        <v>239.3</v>
       </c>
       <c r="E9" t="n">
-        <v>252</v>
+        <v>239.3</v>
       </c>
       <c r="F9" t="n">
-        <v>672.3133</v>
+        <v>98</v>
       </c>
       <c r="G9" t="n">
-        <v>250.1533333333333</v>
+        <v>-10125.64443545378</v>
       </c>
       <c r="H9" t="n">
-        <v>244.8516666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>254</v>
+        <v>241.8</v>
       </c>
       <c r="C10" t="n">
-        <v>254</v>
+        <v>241.8</v>
       </c>
       <c r="D10" t="n">
-        <v>258</v>
+        <v>241.8</v>
       </c>
       <c r="E10" t="n">
-        <v>253</v>
+        <v>241.8</v>
       </c>
       <c r="F10" t="n">
-        <v>6364.8776</v>
+        <v>300.09</v>
       </c>
       <c r="G10" t="n">
-        <v>250.62</v>
+        <v>-9825.55443545378</v>
       </c>
       <c r="H10" t="n">
-        <v>245.0683333333334</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>255</v>
+        <v>241.8</v>
       </c>
       <c r="C11" t="n">
-        <v>257</v>
+        <v>241.8</v>
       </c>
       <c r="D11" t="n">
-        <v>257</v>
+        <v>241.8</v>
       </c>
       <c r="E11" t="n">
-        <v>255</v>
+        <v>241.8</v>
       </c>
       <c r="F11" t="n">
-        <v>146.5382</v>
+        <v>596.9236</v>
       </c>
       <c r="G11" t="n">
-        <v>251.2666666666666</v>
+        <v>-9825.55443545378</v>
       </c>
       <c r="H11" t="n">
-        <v>245.3516666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>255.4</v>
+        <v>241.8</v>
       </c>
       <c r="C12" t="n">
-        <v>257</v>
+        <v>243.1</v>
       </c>
       <c r="D12" t="n">
-        <v>257</v>
+        <v>243.1</v>
       </c>
       <c r="E12" t="n">
-        <v>255.4</v>
+        <v>241.8</v>
       </c>
       <c r="F12" t="n">
-        <v>175.3785</v>
+        <v>96</v>
       </c>
       <c r="G12" t="n">
-        <v>251.7533333333333</v>
+        <v>-9729.55443545378</v>
       </c>
       <c r="H12" t="n">
-        <v>245.635</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>257.9</v>
+        <v>243.1</v>
       </c>
       <c r="C13" t="n">
-        <v>257</v>
+        <v>244.4</v>
       </c>
       <c r="D13" t="n">
-        <v>257.9</v>
+        <v>244.4</v>
       </c>
       <c r="E13" t="n">
-        <v>257</v>
+        <v>243.1</v>
       </c>
       <c r="F13" t="n">
-        <v>180.0828</v>
+        <v>112</v>
       </c>
       <c r="G13" t="n">
-        <v>252.2466666666666</v>
+        <v>-9617.55443545378</v>
       </c>
       <c r="H13" t="n">
-        <v>245.9183333333334</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="C14" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="D14" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="E14" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="F14" t="n">
-        <v>141.6104</v>
+        <v>1.0381</v>
       </c>
       <c r="G14" t="n">
-        <v>252.7666666666667</v>
+        <v>-9617.55443545378</v>
       </c>
       <c r="H14" t="n">
-        <v>246.1483333333334</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>258</v>
+        <v>244.4</v>
       </c>
       <c r="C15" t="n">
-        <v>258</v>
+        <v>247.8</v>
       </c>
       <c r="D15" t="n">
-        <v>258</v>
+        <v>247.8</v>
       </c>
       <c r="E15" t="n">
-        <v>258</v>
+        <v>244.4</v>
       </c>
       <c r="F15" t="n">
-        <v>514.1541999999999</v>
+        <v>236.7571</v>
       </c>
       <c r="G15" t="n">
-        <v>253.3</v>
+        <v>-9380.797335453779</v>
       </c>
       <c r="H15" t="n">
-        <v>246.365</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C16" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D16" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E16" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0761</v>
+        <v>1616.2188</v>
       </c>
       <c r="G16" t="n">
-        <v>253.76</v>
+        <v>-10997.01613545378</v>
       </c>
       <c r="H16" t="n">
-        <v>246.575</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>255.1</v>
+        <v>245</v>
       </c>
       <c r="C17" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D17" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E17" t="n">
-        <v>255.1</v>
+        <v>245</v>
       </c>
       <c r="F17" t="n">
-        <v>750</v>
+        <v>240.028</v>
       </c>
       <c r="G17" t="n">
-        <v>254.22</v>
+        <v>-10756.98813545378</v>
       </c>
       <c r="H17" t="n">
-        <v>246.775</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C18" t="n">
-        <v>253.1</v>
+        <v>247</v>
       </c>
       <c r="D18" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E18" t="n">
-        <v>253.1</v>
+        <v>247</v>
       </c>
       <c r="F18" t="n">
-        <v>2746.5781</v>
+        <v>143.1142</v>
       </c>
       <c r="G18" t="n">
-        <v>254.42</v>
+        <v>-10613.87393545378</v>
       </c>
       <c r="H18" t="n">
-        <v>246.8766666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C19" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D19" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E19" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F19" t="n">
-        <v>280.7887</v>
+        <v>440.2406</v>
       </c>
       <c r="G19" t="n">
-        <v>254.8133333333334</v>
+        <v>-11054.11453545378</v>
       </c>
       <c r="H19" t="n">
-        <v>246.995</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="C20" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="D20" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="E20" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="F20" t="n">
-        <v>219.9864</v>
+        <v>13.48</v>
       </c>
       <c r="G20" t="n">
-        <v>255.2733333333334</v>
+        <v>-11067.59453545378</v>
       </c>
       <c r="H20" t="n">
-        <v>247.1883333333334</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="C21" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="D21" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="E21" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="F21" t="n">
-        <v>663.2456</v>
+        <v>7548.5964</v>
       </c>
       <c r="G21" t="n">
-        <v>255.7333333333334</v>
+        <v>-3518.998135453778</v>
       </c>
       <c r="H21" t="n">
-        <v>247.3983333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="C22" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="D22" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="E22" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="F22" t="n">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="G22" t="n">
-        <v>255.8733333333334</v>
+        <v>-3286.998135453778</v>
       </c>
       <c r="H22" t="n">
-        <v>247.6083333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="C23" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="D23" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="E23" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="F23" t="n">
-        <v>137.2999</v>
+        <v>223.1359</v>
       </c>
       <c r="G23" t="n">
-        <v>256.2</v>
+        <v>-3063.862235453777</v>
       </c>
       <c r="H23" t="n">
-        <v>247.8033333333334</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C24" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D24" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E24" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F24" t="n">
-        <v>332.1174</v>
+        <v>558.3744</v>
       </c>
       <c r="G24" t="n">
-        <v>256.2666666666667</v>
+        <v>-3622.236635453778</v>
       </c>
       <c r="H24" t="n">
-        <v>247.9866666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="C25" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="D25" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="E25" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="F25" t="n">
-        <v>277.4551</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>256.2</v>
+        <v>-3522.236635453778</v>
       </c>
       <c r="H25" t="n">
-        <v>248.1700000000001</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" t="n">
-        <v>253</v>
+        <v>249.7</v>
       </c>
       <c r="D26" t="n">
-        <v>253</v>
+        <v>249.7</v>
       </c>
       <c r="E26" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F26" t="n">
-        <v>78</v>
+        <v>863.2589</v>
       </c>
       <c r="G26" t="n">
-        <v>255.9333333333333</v>
+        <v>-2658.977735453777</v>
       </c>
       <c r="H26" t="n">
-        <v>248.3533333333334</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="C27" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="D27" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="E27" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="F27" t="n">
-        <v>19.4854</v>
+        <v>690.7098</v>
       </c>
       <c r="G27" t="n">
-        <v>255.6666666666667</v>
+        <v>-3349.687535453777</v>
       </c>
       <c r="H27" t="n">
-        <v>248.5366666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="C28" t="n">
         <v>250</v>
-      </c>
-      <c r="C28" t="n">
-        <v>246.1</v>
       </c>
       <c r="D28" t="n">
         <v>250</v>
       </c>
       <c r="E28" t="n">
-        <v>246.1</v>
+        <v>249.6</v>
       </c>
       <c r="F28" t="n">
-        <v>12217.1949</v>
+        <v>6848.4052</v>
       </c>
       <c r="G28" t="n">
-        <v>254.94</v>
+        <v>3498.717664546223</v>
       </c>
       <c r="H28" t="n">
-        <v>248.6050000000001</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="C29" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="D29" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="E29" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="F29" t="n">
-        <v>15521.5071</v>
+        <v>123.7182</v>
       </c>
       <c r="G29" t="n">
-        <v>254.3266666666667</v>
+        <v>3498.717664546223</v>
       </c>
       <c r="H29" t="n">
-        <v>248.7150000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>248.6</v>
+        <v>249.1</v>
       </c>
       <c r="C30" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="D30" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="E30" t="n">
-        <v>248.6</v>
+        <v>249.1</v>
       </c>
       <c r="F30" t="n">
-        <v>3250</v>
+        <v>1520.1379</v>
       </c>
       <c r="G30" t="n">
-        <v>253.7</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H30" t="n">
-        <v>248.8250000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C31" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="D31" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="E31" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F31" t="n">
-        <v>233.4916</v>
+        <v>1053.3549</v>
       </c>
       <c r="G31" t="n">
-        <v>253.1</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H31" t="n">
-        <v>248.9250000000001</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C32" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="D32" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="E32" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F32" t="n">
-        <v>270</v>
+        <v>1274.2061</v>
       </c>
       <c r="G32" t="n">
-        <v>252.5</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H32" t="n">
-        <v>249.0916666666668</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="C33" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="D33" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="E33" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="F33" t="n">
-        <v>456.2017</v>
+        <v>487.1461</v>
       </c>
       <c r="G33" t="n">
-        <v>252.0933333333333</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H33" t="n">
-        <v>249.2250000000001</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C34" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="D34" t="n">
-        <v>248</v>
+        <v>250.9</v>
       </c>
       <c r="E34" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F34" t="n">
-        <v>7.1979</v>
+        <v>238</v>
       </c>
       <c r="G34" t="n">
-        <v>251.56</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H34" t="n">
-        <v>249.3750000000001</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C35" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="D35" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="E35" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F35" t="n">
-        <v>500</v>
+        <v>40.862</v>
       </c>
       <c r="G35" t="n">
-        <v>251</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H35" t="n">
-        <v>249.5350000000001</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>248.6</v>
+        <v>250.8</v>
       </c>
       <c r="C36" t="n">
-        <v>248.6</v>
+        <v>254.9</v>
       </c>
       <c r="D36" t="n">
-        <v>248.6</v>
+        <v>254.9</v>
       </c>
       <c r="E36" t="n">
-        <v>248.6</v>
+        <v>250.8</v>
       </c>
       <c r="F36" t="n">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="G36" t="n">
-        <v>250.44</v>
+        <v>6198.855564546223</v>
       </c>
       <c r="H36" t="n">
-        <v>249.6783333333334</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="C37" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="D37" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="E37" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="F37" t="n">
-        <v>555</v>
+        <v>199.95</v>
       </c>
       <c r="G37" t="n">
-        <v>249.88</v>
+        <v>5998.905564546223</v>
       </c>
       <c r="H37" t="n">
-        <v>249.8216666666668</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C38" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D38" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E38" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F38" t="n">
-        <v>173.9637</v>
+        <v>672.3133</v>
       </c>
       <c r="G38" t="n">
-        <v>249.34</v>
+        <v>6671.218864546223</v>
       </c>
       <c r="H38" t="n">
-        <v>249.9550000000001</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C39" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D39" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E39" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F39" t="n">
-        <v>500</v>
+        <v>6364.8776</v>
       </c>
       <c r="G39" t="n">
-        <v>249.0066666666666</v>
+        <v>13036.09646454622</v>
       </c>
       <c r="H39" t="n">
-        <v>250.0883333333335</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,42 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C40" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D40" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E40" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F40" t="n">
-        <v>84</v>
+        <v>146.5382</v>
       </c>
       <c r="G40" t="n">
-        <v>248.6066666666666</v>
+        <v>13182.63466454622</v>
       </c>
       <c r="H40" t="n">
-        <v>250.2166666666668</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>248</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1926,42 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>247</v>
+        <v>255.4</v>
       </c>
       <c r="C41" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D41" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E41" t="n">
-        <v>247</v>
+        <v>255.4</v>
       </c>
       <c r="F41" t="n">
-        <v>56.5706</v>
+        <v>175.3785</v>
       </c>
       <c r="G41" t="n">
-        <v>248.2066666666666</v>
+        <v>13182.63466454622</v>
       </c>
       <c r="H41" t="n">
-        <v>250.3033333333335</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1970,42 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>247</v>
+        <v>257.9</v>
       </c>
       <c r="C42" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D42" t="n">
-        <v>247</v>
+        <v>257.9</v>
       </c>
       <c r="E42" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F42" t="n">
-        <v>21.1197</v>
+        <v>180.0828</v>
       </c>
       <c r="G42" t="n">
-        <v>247.8066666666666</v>
+        <v>13182.63466454622</v>
       </c>
       <c r="H42" t="n">
-        <v>250.3900000000002</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2014,42 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="C43" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="D43" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="E43" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="F43" t="n">
-        <v>16.6926</v>
+        <v>141.6104</v>
       </c>
       <c r="G43" t="n">
-        <v>247.7333333333333</v>
+        <v>13324.24506454622</v>
       </c>
       <c r="H43" t="n">
-        <v>250.4216666666668</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,42 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C44" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D44" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E44" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F44" t="n">
-        <v>173.052</v>
+        <v>514.1541999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>247.6266666666666</v>
+        <v>13838.39926454622</v>
       </c>
       <c r="H44" t="n">
-        <v>250.4650000000001</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>245</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2102,42 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C45" t="n">
-        <v>249.2</v>
+        <v>257</v>
       </c>
       <c r="D45" t="n">
-        <v>249.2</v>
+        <v>257</v>
       </c>
       <c r="E45" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F45" t="n">
-        <v>750</v>
+        <v>125.0761</v>
       </c>
       <c r="G45" t="n">
-        <v>247.6666666666666</v>
+        <v>13713.32316454622</v>
       </c>
       <c r="H45" t="n">
-        <v>250.5450000000002</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,42 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>248.2</v>
+        <v>255.1</v>
       </c>
       <c r="C46" t="n">
-        <v>248.2</v>
+        <v>257</v>
       </c>
       <c r="D46" t="n">
-        <v>248.2</v>
+        <v>257</v>
       </c>
       <c r="E46" t="n">
-        <v>248.2</v>
+        <v>255.1</v>
       </c>
       <c r="F46" t="n">
-        <v>233</v>
+        <v>750</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6799999999999</v>
+        <v>13713.32316454622</v>
       </c>
       <c r="H46" t="n">
-        <v>250.5516666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>249.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2190,40 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>248.2</v>
+        <v>255</v>
       </c>
       <c r="C47" t="n">
-        <v>248.2</v>
+        <v>253.1</v>
       </c>
       <c r="D47" t="n">
-        <v>248.2</v>
+        <v>255</v>
       </c>
       <c r="E47" t="n">
-        <v>248.2</v>
+        <v>253.1</v>
       </c>
       <c r="F47" t="n">
-        <v>3170.0667</v>
+        <v>2746.5781</v>
       </c>
       <c r="G47" t="n">
-        <v>247.6933333333333</v>
+        <v>10966.74506454622</v>
       </c>
       <c r="H47" t="n">
-        <v>250.6050000000002</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,42 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C48" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D48" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E48" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F48" t="n">
-        <v>156.486</v>
+        <v>280.7887</v>
       </c>
       <c r="G48" t="n">
-        <v>247.6266666666666</v>
+        <v>11247.53376454622</v>
       </c>
       <c r="H48" t="n">
-        <v>250.6050000000002</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>248.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,42 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C49" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D49" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E49" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F49" t="n">
-        <v>195.7275</v>
+        <v>219.9864</v>
       </c>
       <c r="G49" t="n">
-        <v>247.4933333333333</v>
+        <v>11467.52016454622</v>
       </c>
       <c r="H49" t="n">
-        <v>250.5883333333335</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>246</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2320,42 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>247.6</v>
+        <v>257</v>
       </c>
       <c r="C50" t="n">
-        <v>245.3</v>
+        <v>257</v>
       </c>
       <c r="D50" t="n">
-        <v>247.6</v>
+        <v>257</v>
       </c>
       <c r="E50" t="n">
-        <v>245.3</v>
+        <v>257</v>
       </c>
       <c r="F50" t="n">
-        <v>46306.1214</v>
+        <v>663.2456</v>
       </c>
       <c r="G50" t="n">
-        <v>247.2733333333333</v>
+        <v>11467.52016454622</v>
       </c>
       <c r="H50" t="n">
-        <v>250.5766666666669</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>246</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2364,40 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>247.6</v>
+        <v>257</v>
       </c>
       <c r="C51" t="n">
-        <v>248.6</v>
+        <v>257</v>
       </c>
       <c r="D51" t="n">
-        <v>248.6</v>
+        <v>257</v>
       </c>
       <c r="E51" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F51" t="n">
-        <v>811.1944999999999</v>
+        <v>129</v>
       </c>
       <c r="G51" t="n">
-        <v>247.2733333333333</v>
+        <v>11467.52016454622</v>
       </c>
       <c r="H51" t="n">
-        <v>250.6316666666669</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2406,40 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>246</v>
+        <v>256.1</v>
       </c>
       <c r="C52" t="n">
-        <v>249.5</v>
+        <v>256.1</v>
       </c>
       <c r="D52" t="n">
-        <v>249.5</v>
+        <v>256.1</v>
       </c>
       <c r="E52" t="n">
-        <v>246</v>
+        <v>256.1</v>
       </c>
       <c r="F52" t="n">
-        <v>507.1255</v>
+        <v>137.2999</v>
       </c>
       <c r="G52" t="n">
-        <v>247.3333333333333</v>
+        <v>11330.22026454622</v>
       </c>
       <c r="H52" t="n">
-        <v>250.7000000000002</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2448,40 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C53" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D53" t="n">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E53" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F53" t="n">
-        <v>160.9148</v>
+        <v>332.1174</v>
       </c>
       <c r="G53" t="n">
-        <v>247.2666666666666</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H53" t="n">
-        <v>250.6850000000002</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,40 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C54" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D54" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E54" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F54" t="n">
-        <v>22.3283</v>
+        <v>277.4551</v>
       </c>
       <c r="G54" t="n">
-        <v>247.2</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H54" t="n">
-        <v>250.6566666666669</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,40 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="C55" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="D55" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="E55" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="F55" t="n">
-        <v>1897.3697</v>
+        <v>78</v>
       </c>
       <c r="G55" t="n">
-        <v>247.32</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H55" t="n">
-        <v>250.6866666666669</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,40 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C56" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D56" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E56" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F56" t="n">
-        <v>125.5237</v>
+        <v>19.4854</v>
       </c>
       <c r="G56" t="n">
-        <v>247.4533333333333</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H56" t="n">
-        <v>250.7150000000002</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,40 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>250.1</v>
+        <v>250</v>
       </c>
       <c r="C57" t="n">
-        <v>250.1</v>
+        <v>246.1</v>
       </c>
       <c r="D57" t="n">
-        <v>250.1</v>
+        <v>250</v>
       </c>
       <c r="E57" t="n">
-        <v>250.1</v>
+        <v>246.1</v>
       </c>
       <c r="F57" t="n">
-        <v>68.105</v>
+        <v>12217.1949</v>
       </c>
       <c r="G57" t="n">
-        <v>247.66</v>
+        <v>-1219.092035453777</v>
       </c>
       <c r="H57" t="n">
-        <v>250.7216666666669</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,40 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="C58" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="D58" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="E58" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="F58" t="n">
-        <v>132.0396</v>
+        <v>15521.5071</v>
       </c>
       <c r="G58" t="n">
-        <v>248</v>
+        <v>14302.41506454622</v>
       </c>
       <c r="H58" t="n">
-        <v>250.7300000000002</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,40 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="C59" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="D59" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="E59" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="F59" t="n">
-        <v>204.2041</v>
+        <v>3250</v>
       </c>
       <c r="G59" t="n">
-        <v>248.2066666666666</v>
+        <v>14302.41506454622</v>
       </c>
       <c r="H59" t="n">
-        <v>250.7316666666669</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2742,40 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="C60" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="D60" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="E60" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="F60" t="n">
-        <v>97</v>
+        <v>233.4916</v>
       </c>
       <c r="G60" t="n">
-        <v>248.2733333333333</v>
+        <v>14068.92346454622</v>
       </c>
       <c r="H60" t="n">
-        <v>250.7350000000002</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2784,40 +2498,37 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="C61" t="n">
-        <v>251.1</v>
+        <v>248</v>
       </c>
       <c r="D61" t="n">
-        <v>251.1</v>
+        <v>248</v>
       </c>
       <c r="E61" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="F61" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="G61" t="n">
-        <v>248.4666666666666</v>
+        <v>14068.92346454622</v>
       </c>
       <c r="H61" t="n">
-        <v>250.7516666666669</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
+        <v>248</v>
+      </c>
+      <c r="K61" t="n">
+        <v>248</v>
+      </c>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,40 +2537,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>251.1</v>
+        <v>247</v>
       </c>
       <c r="C62" t="n">
-        <v>252.9</v>
+        <v>247</v>
       </c>
       <c r="D62" t="n">
-        <v>252.9</v>
+        <v>247</v>
       </c>
       <c r="E62" t="n">
-        <v>251.1</v>
+        <v>247</v>
       </c>
       <c r="F62" t="n">
-        <v>3700</v>
+        <v>456.2017</v>
       </c>
       <c r="G62" t="n">
-        <v>248.78</v>
+        <v>13612.72176454622</v>
       </c>
       <c r="H62" t="n">
-        <v>250.7983333333335</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+        <v>248</v>
+      </c>
+      <c r="K62" t="n">
+        <v>248</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2868,40 +2580,41 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C63" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D63" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E63" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F63" t="n">
-        <v>722.7939</v>
+        <v>7.1979</v>
       </c>
       <c r="G63" t="n">
-        <v>249.2466666666666</v>
+        <v>13619.91966454622</v>
       </c>
       <c r="H63" t="n">
-        <v>250.8466666666669</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+        <v>247</v>
+      </c>
+      <c r="K63" t="n">
+        <v>248</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2910,40 +2623,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>252.1</v>
+        <v>248</v>
       </c>
       <c r="C64" t="n">
-        <v>252.1</v>
+        <v>248.6</v>
       </c>
       <c r="D64" t="n">
-        <v>252.1</v>
+        <v>248.6</v>
       </c>
       <c r="E64" t="n">
-        <v>252.1</v>
+        <v>248</v>
       </c>
       <c r="F64" t="n">
-        <v>261.3836</v>
+        <v>500</v>
       </c>
       <c r="G64" t="n">
-        <v>249.6533333333333</v>
+        <v>14119.91966454622</v>
       </c>
       <c r="H64" t="n">
-        <v>250.8800000000002</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+        <v>248</v>
+      </c>
+      <c r="K64" t="n">
+        <v>248</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2952,40 +2666,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="C65" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="D65" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="E65" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="F65" t="n">
-        <v>171.0195</v>
+        <v>1250</v>
       </c>
       <c r="G65" t="n">
-        <v>250.1</v>
+        <v>14119.91966454622</v>
       </c>
       <c r="H65" t="n">
-        <v>250.9116666666669</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="K65" t="n">
+        <v>248</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2994,40 +2709,41 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="C66" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="D66" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="E66" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="F66" t="n">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="G66" t="n">
-        <v>250.3533333333333</v>
+        <v>14119.91966454622</v>
       </c>
       <c r="H66" t="n">
-        <v>250.9500000000002</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="K66" t="n">
+        <v>248</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3036,40 +2752,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="C67" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="D67" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="E67" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="F67" t="n">
-        <v>3.9825</v>
+        <v>173.9637</v>
       </c>
       <c r="G67" t="n">
-        <v>250.3333333333333</v>
+        <v>13945.95596454622</v>
       </c>
       <c r="H67" t="n">
-        <v>250.8550000000002</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+        <v>248.6</v>
+      </c>
+      <c r="K67" t="n">
+        <v>248</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3078,40 +2795,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C68" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="D68" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="E68" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F68" t="n">
-        <v>252.2963</v>
+        <v>500</v>
       </c>
       <c r="G68" t="n">
-        <v>250.8866666666667</v>
+        <v>13945.95596454622</v>
       </c>
       <c r="H68" t="n">
-        <v>250.9233333333335</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+        <v>248</v>
+      </c>
+      <c r="K68" t="n">
+        <v>248</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3120,40 +2838,41 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="C69" t="n">
-        <v>255.3</v>
+        <v>247</v>
       </c>
       <c r="D69" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="E69" t="n">
-        <v>255.3</v>
+        <v>247</v>
       </c>
       <c r="F69" t="n">
-        <v>900</v>
+        <v>84</v>
       </c>
       <c r="G69" t="n">
-        <v>251.44</v>
+        <v>13861.95596454622</v>
       </c>
       <c r="H69" t="n">
-        <v>250.9783333333335</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+        <v>248</v>
+      </c>
+      <c r="K69" t="n">
+        <v>248</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3162,40 +2881,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="C70" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="D70" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="E70" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="F70" t="n">
-        <v>261.3836</v>
+        <v>56.5706</v>
       </c>
       <c r="G70" t="n">
-        <v>251.88</v>
+        <v>13861.95596454622</v>
       </c>
       <c r="H70" t="n">
-        <v>251.0016666666668</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+        <v>247</v>
+      </c>
+      <c r="K70" t="n">
+        <v>248</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,40 +2924,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C71" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D71" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E71" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F71" t="n">
-        <v>1382.0169</v>
+        <v>21.1197</v>
       </c>
       <c r="G71" t="n">
-        <v>252.3466666666667</v>
+        <v>13861.95596454622</v>
       </c>
       <c r="H71" t="n">
-        <v>250.9850000000002</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+        <v>247</v>
+      </c>
+      <c r="K71" t="n">
+        <v>248</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3246,40 +2967,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C72" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D72" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E72" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F72" t="n">
-        <v>710.9831</v>
+        <v>16.6926</v>
       </c>
       <c r="G72" t="n">
-        <v>252.74</v>
+        <v>13845.26336454622</v>
       </c>
       <c r="H72" t="n">
-        <v>250.9683333333335</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>247</v>
+      </c>
+      <c r="K72" t="n">
+        <v>248</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,40 +3010,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="C73" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="D73" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="E73" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="F73" t="n">
-        <v>131.0393</v>
+        <v>173.052</v>
       </c>
       <c r="G73" t="n">
-        <v>253.2466666666666</v>
+        <v>14018.31536454622</v>
       </c>
       <c r="H73" t="n">
-        <v>250.9800000000002</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+        <v>245</v>
+      </c>
+      <c r="K73" t="n">
+        <v>248</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3330,40 +3053,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="C74" t="n">
-        <v>258</v>
+        <v>249.2</v>
       </c>
       <c r="D74" t="n">
-        <v>258</v>
+        <v>249.2</v>
       </c>
       <c r="E74" t="n">
-        <v>257.6</v>
+        <v>247</v>
       </c>
       <c r="F74" t="n">
-        <v>10661.0031</v>
+        <v>750</v>
       </c>
       <c r="G74" t="n">
-        <v>253.7733333333333</v>
+        <v>14768.31536454622</v>
       </c>
       <c r="H74" t="n">
-        <v>250.9833333333335</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+        <v>247</v>
+      </c>
+      <c r="K74" t="n">
+        <v>248</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3372,40 +3096,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="C75" t="n">
-        <v>258.1</v>
+        <v>248.2</v>
       </c>
       <c r="D75" t="n">
-        <v>258.1</v>
+        <v>248.2</v>
       </c>
       <c r="E75" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4901.8806</v>
+        <v>233</v>
       </c>
       <c r="G75" t="n">
-        <v>254.3</v>
+        <v>14535.31536454622</v>
       </c>
       <c r="H75" t="n">
-        <v>250.9850000000002</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>248</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3414,40 +3137,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="C76" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="D76" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="E76" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="F76" t="n">
-        <v>853.5382</v>
+        <v>3170.0667</v>
       </c>
       <c r="G76" t="n">
-        <v>254.76</v>
+        <v>14535.31536454622</v>
       </c>
       <c r="H76" t="n">
-        <v>251.0016666666669</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>248</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,40 +3178,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C77" t="n">
-        <v>259.5</v>
+        <v>246</v>
       </c>
       <c r="D77" t="n">
-        <v>259.5</v>
+        <v>246</v>
       </c>
       <c r="E77" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F77" t="n">
-        <v>2200</v>
+        <v>156.486</v>
       </c>
       <c r="G77" t="n">
-        <v>255.2</v>
+        <v>14378.82936454622</v>
       </c>
       <c r="H77" t="n">
-        <v>251.0433333333335</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>248</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,40 +3219,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C78" t="n">
-        <v>259.4</v>
+        <v>246</v>
       </c>
       <c r="D78" t="n">
-        <v>259.4</v>
+        <v>246</v>
       </c>
       <c r="E78" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F78" t="n">
-        <v>869</v>
+        <v>195.7275</v>
       </c>
       <c r="G78" t="n">
-        <v>255.6266666666667</v>
+        <v>14378.82936454622</v>
       </c>
       <c r="H78" t="n">
-        <v>251.1483333333335</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>248</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,40 +3260,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>259.4</v>
+        <v>247.6</v>
       </c>
       <c r="C79" t="n">
-        <v>260.2</v>
+        <v>245.3</v>
       </c>
       <c r="D79" t="n">
-        <v>260.2</v>
+        <v>247.6</v>
       </c>
       <c r="E79" t="n">
-        <v>259.4</v>
+        <v>245.3</v>
       </c>
       <c r="F79" t="n">
-        <v>6909.5247</v>
+        <v>46306.1214</v>
       </c>
       <c r="G79" t="n">
-        <v>256.1666666666667</v>
+        <v>-31927.29203545378</v>
       </c>
       <c r="H79" t="n">
-        <v>251.2183333333335</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>248</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,40 +3301,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>260.2</v>
+        <v>247.6</v>
       </c>
       <c r="C80" t="n">
-        <v>260.2</v>
+        <v>248.6</v>
       </c>
       <c r="D80" t="n">
-        <v>260.2</v>
+        <v>248.6</v>
       </c>
       <c r="E80" t="n">
-        <v>260.2</v>
+        <v>247</v>
       </c>
       <c r="F80" t="n">
-        <v>50</v>
+        <v>811.1944999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>256.7133333333333</v>
+        <v>-31116.09753545378</v>
       </c>
       <c r="H80" t="n">
-        <v>251.2716666666669</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>248</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3624,40 +3342,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>260.2</v>
+        <v>246</v>
       </c>
       <c r="C81" t="n">
-        <v>259.7</v>
+        <v>249.5</v>
       </c>
       <c r="D81" t="n">
-        <v>260.2</v>
+        <v>249.5</v>
       </c>
       <c r="E81" t="n">
-        <v>255.1</v>
+        <v>246</v>
       </c>
       <c r="F81" t="n">
-        <v>4177.0531</v>
+        <v>507.1255</v>
       </c>
       <c r="G81" t="n">
-        <v>257.2</v>
+        <v>-30608.97203545378</v>
       </c>
       <c r="H81" t="n">
-        <v>251.3166666666669</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>248</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3666,40 +3383,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>259.6</v>
+        <v>247</v>
       </c>
       <c r="C82" t="n">
-        <v>259.5</v>
+        <v>247</v>
       </c>
       <c r="D82" t="n">
-        <v>259.6</v>
+        <v>247</v>
       </c>
       <c r="E82" t="n">
-        <v>259.5</v>
+        <v>247</v>
       </c>
       <c r="F82" t="n">
-        <v>1920.3168</v>
+        <v>160.9148</v>
       </c>
       <c r="G82" t="n">
-        <v>257.8866666666667</v>
+        <v>-30769.88683545378</v>
       </c>
       <c r="H82" t="n">
-        <v>251.3583333333335</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>248</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3708,40 +3424,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="C83" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="D83" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="E83" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>22.3283</v>
       </c>
       <c r="G83" t="n">
-        <v>258.0066666666667</v>
+        <v>-30769.88683545378</v>
       </c>
       <c r="H83" t="n">
-        <v>251.3750000000002</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>248</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3750,40 +3465,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="C84" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="D84" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="E84" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="F84" t="n">
-        <v>3031.9095</v>
+        <v>1897.3697</v>
       </c>
       <c r="G84" t="n">
-        <v>258.3666666666667</v>
+        <v>-28872.51713545378</v>
       </c>
       <c r="H84" t="n">
-        <v>251.5033333333336</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>248</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3792,40 +3506,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>256.3</v>
+        <v>249</v>
       </c>
       <c r="C85" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D85" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E85" t="n">
-        <v>256.3</v>
+        <v>249</v>
       </c>
       <c r="F85" t="n">
-        <v>209.3419</v>
+        <v>125.5237</v>
       </c>
       <c r="G85" t="n">
-        <v>258.54</v>
+        <v>-28746.99343545378</v>
       </c>
       <c r="H85" t="n">
-        <v>251.5866666666669</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>248</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3834,40 +3547,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>257.4</v>
+        <v>250.1</v>
       </c>
       <c r="C86" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="D86" t="n">
-        <v>260.7</v>
+        <v>250.1</v>
       </c>
       <c r="E86" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="F86" t="n">
-        <v>682.4400000000001</v>
+        <v>68.105</v>
       </c>
       <c r="G86" t="n">
-        <v>258.6133333333333</v>
+        <v>-28678.88843545378</v>
       </c>
       <c r="H86" t="n">
-        <v>251.6550000000002</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>248</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3876,40 +3588,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="C87" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="D87" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="E87" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="F87" t="n">
-        <v>568.5951</v>
+        <v>132.0396</v>
       </c>
       <c r="G87" t="n">
-        <v>258.68</v>
+        <v>-28678.88843545378</v>
       </c>
       <c r="H87" t="n">
-        <v>251.7216666666669</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>248</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3918,40 +3629,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="C88" t="n">
-        <v>255.9</v>
+        <v>250.1</v>
       </c>
       <c r="D88" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="E88" t="n">
-        <v>255.9</v>
+        <v>250.1</v>
       </c>
       <c r="F88" t="n">
-        <v>400</v>
+        <v>204.2041</v>
       </c>
       <c r="G88" t="n">
-        <v>258.56</v>
+        <v>-28678.88843545378</v>
       </c>
       <c r="H88" t="n">
-        <v>251.8850000000002</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>248</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3960,40 +3670,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>259.7</v>
+        <v>250.2</v>
       </c>
       <c r="C89" t="n">
-        <v>257.1</v>
+        <v>250.2</v>
       </c>
       <c r="D89" t="n">
-        <v>260</v>
+        <v>250.2</v>
       </c>
       <c r="E89" t="n">
-        <v>257.1</v>
+        <v>250.2</v>
       </c>
       <c r="F89" t="n">
-        <v>734.8074</v>
+        <v>97</v>
       </c>
       <c r="G89" t="n">
-        <v>258.5</v>
+        <v>-28581.88843545378</v>
       </c>
       <c r="H89" t="n">
-        <v>252.0266666666669</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>248</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4002,40 +3711,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>257.1</v>
+        <v>250.2</v>
       </c>
       <c r="C90" t="n">
-        <v>257.1</v>
+        <v>251.1</v>
       </c>
       <c r="D90" t="n">
-        <v>257.1</v>
+        <v>251.1</v>
       </c>
       <c r="E90" t="n">
-        <v>257</v>
+        <v>250.2</v>
       </c>
       <c r="F90" t="n">
-        <v>585.6721</v>
+        <v>155</v>
       </c>
       <c r="G90" t="n">
-        <v>258.4333333333333</v>
+        <v>-28426.88843545378</v>
       </c>
       <c r="H90" t="n">
-        <v>252.1683333333335</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>248</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4044,40 +3752,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>256</v>
+        <v>251.1</v>
       </c>
       <c r="C91" t="n">
-        <v>259.7</v>
+        <v>252.9</v>
       </c>
       <c r="D91" t="n">
-        <v>259.7</v>
+        <v>252.9</v>
       </c>
       <c r="E91" t="n">
-        <v>256</v>
+        <v>251.1</v>
       </c>
       <c r="F91" t="n">
-        <v>987.343</v>
+        <v>3700</v>
       </c>
       <c r="G91" t="n">
-        <v>258.5466666666667</v>
+        <v>-24726.88843545378</v>
       </c>
       <c r="H91" t="n">
-        <v>252.3633333333336</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>248</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,40 +3793,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="C92" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="D92" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="E92" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>722.7939</v>
       </c>
       <c r="G92" t="n">
-        <v>258.3866666666667</v>
+        <v>-24004.09453545378</v>
       </c>
       <c r="H92" t="n">
-        <v>252.5150000000002</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>248</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4128,40 +3834,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="C93" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="D93" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="E93" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="F93" t="n">
-        <v>118.4621</v>
+        <v>261.3836</v>
       </c>
       <c r="G93" t="n">
-        <v>258.4266666666667</v>
+        <v>-24265.47813545378</v>
       </c>
       <c r="H93" t="n">
-        <v>252.7316666666669</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>248</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4170,40 +3875,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C94" t="n">
-        <v>260.7</v>
+        <v>252</v>
       </c>
       <c r="D94" t="n">
-        <v>260.7</v>
+        <v>252</v>
       </c>
       <c r="E94" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F94" t="n">
-        <v>141.6855</v>
+        <v>171.0195</v>
       </c>
       <c r="G94" t="n">
-        <v>258.4600000000001</v>
+        <v>-24436.49763545378</v>
       </c>
       <c r="H94" t="n">
-        <v>252.9433333333336</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>248</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4212,40 +3916,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="C95" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="D95" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="E95" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="F95" t="n">
-        <v>1509.4528</v>
+        <v>171</v>
       </c>
       <c r="G95" t="n">
-        <v>258.4933333333335</v>
+        <v>-24265.49763545378</v>
       </c>
       <c r="H95" t="n">
-        <v>253.1450000000003</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>248</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,40 +3957,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="C96" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="D96" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="E96" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="F96" t="n">
-        <v>380.114</v>
+        <v>3.9825</v>
       </c>
       <c r="G96" t="n">
-        <v>258.5600000000001</v>
+        <v>-24269.48013545378</v>
       </c>
       <c r="H96" t="n">
-        <v>253.3466666666669</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>248</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4296,40 +3998,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>260.7</v>
+        <v>253</v>
       </c>
       <c r="C97" t="n">
-        <v>260.7</v>
+        <v>255.3</v>
       </c>
       <c r="D97" t="n">
-        <v>260.7</v>
+        <v>255.3</v>
       </c>
       <c r="E97" t="n">
-        <v>260.7</v>
+        <v>253</v>
       </c>
       <c r="F97" t="n">
-        <v>2862.7415</v>
+        <v>252.2963</v>
       </c>
       <c r="G97" t="n">
-        <v>258.6400000000001</v>
+        <v>-24017.18383545378</v>
       </c>
       <c r="H97" t="n">
-        <v>253.5483333333336</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>248</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4338,40 +4039,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>258.1</v>
+        <v>255.3</v>
       </c>
       <c r="C98" t="n">
-        <v>261.9</v>
+        <v>255.3</v>
       </c>
       <c r="D98" t="n">
-        <v>261.9</v>
+        <v>255.3</v>
       </c>
       <c r="E98" t="n">
-        <v>258.1</v>
+        <v>255.3</v>
       </c>
       <c r="F98" t="n">
-        <v>2099.4563</v>
+        <v>900</v>
       </c>
       <c r="G98" t="n">
-        <v>258.9600000000001</v>
+        <v>-24017.18383545378</v>
       </c>
       <c r="H98" t="n">
-        <v>253.7800000000003</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>248</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4380,40 +4080,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>261.9</v>
+        <v>255.4</v>
       </c>
       <c r="C99" t="n">
-        <v>262</v>
+        <v>255.4</v>
       </c>
       <c r="D99" t="n">
-        <v>262</v>
+        <v>255.4</v>
       </c>
       <c r="E99" t="n">
-        <v>261.8</v>
+        <v>255.4</v>
       </c>
       <c r="F99" t="n">
-        <v>9586.762199999999</v>
+        <v>261.3836</v>
       </c>
       <c r="G99" t="n">
-        <v>259.0466666666668</v>
+        <v>-23755.80023545377</v>
       </c>
       <c r="H99" t="n">
-        <v>254.0133333333336</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>248</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4422,76 +4121,80 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C100" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D100" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E100" t="n">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F100" t="n">
-        <v>1903.714</v>
+        <v>1382.0169</v>
       </c>
       <c r="G100" t="n">
-        <v>259.3133333333334</v>
+        <v>-22373.78333545378</v>
       </c>
       <c r="H100" t="n">
-        <v>254.2633333333336</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>248</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C101" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D101" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E101" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F101" t="n">
-        <v>4173.1749</v>
+        <v>710.9831</v>
       </c>
       <c r="G101" t="n">
-        <v>259.6400000000001</v>
+        <v>-22373.78333545378</v>
       </c>
       <c r="H101" t="n">
-        <v>254.5133333333336</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>248</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4500,36 +4203,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="C102" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="D102" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="E102" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="F102" t="n">
-        <v>600.9646</v>
+        <v>131.0393</v>
       </c>
       <c r="G102" t="n">
-        <v>259.9733333333335</v>
+        <v>-22242.74403545378</v>
       </c>
       <c r="H102" t="n">
-        <v>254.7633333333336</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>248</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4538,36 +4244,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>263</v>
+        <v>257.7</v>
       </c>
       <c r="C103" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D103" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E103" t="n">
-        <v>263</v>
+        <v>257.6</v>
       </c>
       <c r="F103" t="n">
-        <v>250</v>
+        <v>10661.0031</v>
       </c>
       <c r="G103" t="n">
-        <v>260.4466666666668</v>
+        <v>-11581.74093545378</v>
       </c>
       <c r="H103" t="n">
-        <v>255.0633333333336</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>248</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,36 +4285,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C104" t="n">
-        <v>262</v>
+        <v>258.1</v>
       </c>
       <c r="D104" t="n">
-        <v>262</v>
+        <v>258.1</v>
       </c>
       <c r="E104" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F104" t="n">
-        <v>12.9675</v>
+        <v>4901.8806</v>
       </c>
       <c r="G104" t="n">
-        <v>260.7733333333335</v>
+        <v>-6679.860335453775</v>
       </c>
       <c r="H104" t="n">
-        <v>255.3133333333336</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>248</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4614,36 +4326,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C105" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D105" t="n">
-        <v>262.1</v>
+        <v>258</v>
       </c>
       <c r="E105" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F105" t="n">
-        <v>679.7272</v>
+        <v>853.5382</v>
       </c>
       <c r="G105" t="n">
-        <v>261.1000000000001</v>
+        <v>-7533.398535453775</v>
       </c>
       <c r="H105" t="n">
-        <v>255.5266666666669</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>248</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4652,36 +4367,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C106" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="D106" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="E106" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F106" t="n">
-        <v>305</v>
+        <v>2200</v>
       </c>
       <c r="G106" t="n">
-        <v>261.3200000000001</v>
+        <v>-5333.398535453775</v>
       </c>
       <c r="H106" t="n">
-        <v>255.7733333333336</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>248</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4690,36 +4408,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C107" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="D107" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="E107" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F107" t="n">
-        <v>1210</v>
+        <v>869</v>
       </c>
       <c r="G107" t="n">
-        <v>261.7133333333335</v>
+        <v>-6202.398535453775</v>
       </c>
       <c r="H107" t="n">
-        <v>256.0200000000002</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>248</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4728,36 +4449,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="C108" t="n">
-        <v>263.3</v>
+        <v>260.2</v>
       </c>
       <c r="D108" t="n">
-        <v>263.3</v>
+        <v>260.2</v>
       </c>
       <c r="E108" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="F108" t="n">
-        <v>1305</v>
+        <v>6909.5247</v>
       </c>
       <c r="G108" t="n">
-        <v>261.9333333333335</v>
+        <v>707.1261645462246</v>
       </c>
       <c r="H108" t="n">
-        <v>256.3083333333336</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>248</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4766,36 +4490,1186 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="C109" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="E109" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="F109" t="n">
+        <v>50</v>
+      </c>
+      <c r="G109" t="n">
+        <v>707.1261645462246</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>248</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="C110" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="D110" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="E110" t="n">
+        <v>255.1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4177.0531</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-3469.926935453776</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>248</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="E111" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1920.3168</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-5390.243735453776</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>248</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D112" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E112" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-5395.243735453776</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>248</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C113" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D113" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E113" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F113" t="n">
+        <v>3031.9095</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2363.334235453776</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>248</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>256.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>258</v>
+      </c>
+      <c r="D114" t="n">
+        <v>258</v>
+      </c>
+      <c r="E114" t="n">
+        <v>256.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>209.3419</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2572.676135453776</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>248</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="C115" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D115" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E115" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>682.4400000000001</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-3255.116135453776</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>248</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>257</v>
+      </c>
+      <c r="D116" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>257</v>
+      </c>
+      <c r="F116" t="n">
+        <v>568.5951</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3823.711235453776</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>248</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>257</v>
+      </c>
+      <c r="C117" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>257</v>
+      </c>
+      <c r="E117" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="F117" t="n">
+        <v>400</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-4223.711235453776</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>248</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="C118" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D118" t="n">
+        <v>260</v>
+      </c>
+      <c r="E118" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>734.8074</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-3488.903835453776</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>248</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D119" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E119" t="n">
+        <v>257</v>
+      </c>
+      <c r="F119" t="n">
+        <v>585.6721</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-3488.903835453776</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>248</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>256</v>
+      </c>
+      <c r="C120" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="D120" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="E120" t="n">
+        <v>256</v>
+      </c>
+      <c r="F120" t="n">
+        <v>987.343</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2501.560835453776</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>248</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E121" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2506.560835453776</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>248</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>260</v>
+      </c>
+      <c r="C122" t="n">
+        <v>260</v>
+      </c>
+      <c r="D122" t="n">
+        <v>260</v>
+      </c>
+      <c r="E122" t="n">
+        <v>260</v>
+      </c>
+      <c r="F122" t="n">
+        <v>118.4621</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2388.098735453776</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>248</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>260</v>
+      </c>
+      <c r="C123" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D123" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E123" t="n">
+        <v>260</v>
+      </c>
+      <c r="F123" t="n">
+        <v>141.6855</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>248</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C124" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D124" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E124" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1509.4528</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>248</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C125" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D125" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E125" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F125" t="n">
+        <v>380.114</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>248</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2862.7415</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>248</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>2099.4563</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-146.9569354537757</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>248</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="C128" t="n">
+        <v>262</v>
+      </c>
+      <c r="D128" t="n">
+        <v>262</v>
+      </c>
+      <c r="E128" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>9586.762199999999</v>
+      </c>
+      <c r="G128" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>248</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>262</v>
+      </c>
+      <c r="C129" t="n">
+        <v>262</v>
+      </c>
+      <c r="D129" t="n">
+        <v>262</v>
+      </c>
+      <c r="E129" t="n">
+        <v>262</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1903.714</v>
+      </c>
+      <c r="G129" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>248</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>262</v>
+      </c>
+      <c r="C130" t="n">
+        <v>262</v>
+      </c>
+      <c r="D130" t="n">
+        <v>262</v>
+      </c>
+      <c r="E130" t="n">
+        <v>262</v>
+      </c>
+      <c r="F130" t="n">
+        <v>4173.1749</v>
+      </c>
+      <c r="G130" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>248</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>262</v>
+      </c>
+      <c r="C131" t="n">
+        <v>262</v>
+      </c>
+      <c r="D131" t="n">
+        <v>262</v>
+      </c>
+      <c r="E131" t="n">
+        <v>262</v>
+      </c>
+      <c r="F131" t="n">
+        <v>600.9646</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>248</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1.051451612903226</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>263</v>
+      </c>
+      <c r="C132" t="n">
+        <v>263</v>
+      </c>
+      <c r="D132" t="n">
+        <v>263</v>
+      </c>
+      <c r="E132" t="n">
+        <v>263</v>
+      </c>
+      <c r="F132" t="n">
+        <v>250</v>
+      </c>
+      <c r="G132" t="n">
+        <v>9689.805264546223</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>262</v>
+      </c>
+      <c r="C133" t="n">
+        <v>262</v>
+      </c>
+      <c r="D133" t="n">
+        <v>262</v>
+      </c>
+      <c r="E133" t="n">
+        <v>262</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12.9675</v>
+      </c>
+      <c r="G133" t="n">
+        <v>9676.837764546222</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>262</v>
+      </c>
+      <c r="C134" t="n">
+        <v>262</v>
+      </c>
+      <c r="D134" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="E134" t="n">
+        <v>262</v>
+      </c>
+      <c r="F134" t="n">
+        <v>679.7272</v>
+      </c>
+      <c r="G134" t="n">
+        <v>9676.837764546222</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>263</v>
+      </c>
+      <c r="C135" t="n">
+        <v>263</v>
+      </c>
+      <c r="D135" t="n">
+        <v>263</v>
+      </c>
+      <c r="E135" t="n">
+        <v>263</v>
+      </c>
+      <c r="F135" t="n">
+        <v>305</v>
+      </c>
+      <c r="G135" t="n">
+        <v>9981.837764546222</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>263</v>
+      </c>
+      <c r="C136" t="n">
+        <v>263</v>
+      </c>
+      <c r="D136" t="n">
+        <v>263</v>
+      </c>
+      <c r="E136" t="n">
+        <v>263</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G136" t="n">
+        <v>9981.837764546222</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>263</v>
+      </c>
+      <c r="C137" t="n">
         <v>263.3</v>
       </c>
-      <c r="C109" t="n">
+      <c r="D137" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="E137" t="n">
+        <v>263</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G137" t="n">
+        <v>11286.83776454622</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="C138" t="n">
         <v>263.5</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D138" t="n">
         <v>263.5</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E138" t="n">
         <v>263.3</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F138" t="n">
         <v>1662</v>
       </c>
-      <c r="G109" t="n">
-        <v>262.1200000000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>256.6000000000002</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="G138" t="n">
+        <v>12948.83776454622</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1854,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1889,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1924,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1959,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1994,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2134,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2169,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2204,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2531,6 +2595,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2574,6 +2639,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2617,6 +2683,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2660,6 +2727,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2703,6 +2771,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2746,6 +2815,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2789,6 +2859,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,6 +2903,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2875,6 +2947,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2918,6 +2991,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2961,6 +3035,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3004,6 +3079,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3047,6 +3123,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3090,6 +3167,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3131,6 +3209,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3172,6 +3251,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3213,6 +3293,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3254,6 +3335,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3295,6 +3377,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,6 +3419,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3377,6 +3461,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3418,6 +3503,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3459,6 +3545,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3500,6 +3587,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3541,6 +3629,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3582,6 +3671,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3623,6 +3713,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3664,6 +3755,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3705,6 +3797,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3746,6 +3839,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3787,6 +3881,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3828,6 +3923,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3869,6 +3965,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3910,6 +4007,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3951,6 +4049,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3992,6 +4091,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4033,6 +4133,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4074,6 +4175,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4115,6 +4217,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4156,6 +4259,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4197,6 +4301,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4238,6 +4343,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4279,6 +4385,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4320,6 +4427,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4361,6 +4469,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4402,6 +4511,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4443,6 +4553,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4484,6 +4595,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4511,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
@@ -4519,11 +4631,14 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M109" t="n">
-        <v>1</v>
+        <v>1.044193548387097</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.084033613445378</v>
       </c>
     </row>
     <row r="110">
@@ -4552,20 +4667,15 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>248</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4593,20 +4703,15 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>248</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4637,17 +4742,12 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>248</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4678,17 +4778,12 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>248</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4716,20 +4811,15 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>248</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4760,17 +4850,12 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>248</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4801,17 +4886,12 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>248</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4842,17 +4922,12 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>248</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4883,17 +4958,12 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>248</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4924,17 +4994,12 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>248</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4965,17 +5030,12 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>248</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5006,17 +5066,12 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>248</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5047,17 +5102,12 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>248</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5088,17 +5138,12 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>248</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5129,17 +5174,12 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>248</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5170,17 +5210,12 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>248</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5211,17 +5246,12 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>248</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5249,20 +5279,15 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>248</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5293,17 +5318,12 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>248</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5331,20 +5351,15 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>248</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5372,20 +5387,15 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>248</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5416,17 +5426,12 @@
         <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>248</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>1.051451612903226</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5462,6 +5467,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5497,6 +5503,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5524,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5532,6 +5539,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5567,6 +5575,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5602,6 +5611,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5637,6 +5647,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5672,6 +5683,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N138"/>
+  <dimension ref="A1:N167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,7 +438,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C2" t="n">
         <v>239</v>
@@ -450,10 +450,10 @@
         <v>238</v>
       </c>
       <c r="F2" t="n">
-        <v>2287.0411</v>
+        <v>1654.9172</v>
       </c>
       <c r="G2" t="n">
-        <v>-12260.31413545378</v>
+        <v>15507.07036454622</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -486,10 +486,10 @@
         <v>239</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4542</v>
+        <v>1222.2847</v>
       </c>
       <c r="G3" t="n">
-        <v>-12260.31413545378</v>
+        <v>15507.07036454622</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,31 +510,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>126.9052</v>
+      </c>
+      <c r="G4" t="n">
+        <v>15633.97556454622</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>239</v>
       </c>
-      <c r="C4" t="n">
+      <c r="K4" t="n">
         <v>239</v>
       </c>
-      <c r="D4" t="n">
-        <v>239</v>
-      </c>
-      <c r="E4" t="n">
-        <v>239</v>
-      </c>
-      <c r="F4" t="n">
-        <v>114</v>
-      </c>
-      <c r="G4" t="n">
-        <v>-12260.31413545378</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -546,32 +550,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>243</v>
+      </c>
+      <c r="C5" t="n">
+        <v>243</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243</v>
+      </c>
+      <c r="E5" t="n">
+        <v>243</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5207</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10426.97556454622</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
         <v>239</v>
       </c>
-      <c r="C5" t="n">
-        <v>240</v>
-      </c>
-      <c r="D5" t="n">
-        <v>240</v>
-      </c>
-      <c r="E5" t="n">
-        <v>239</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2232.6697</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-10027.64443545378</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,22 +592,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E6" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F6" t="n">
-        <v>6820.9712</v>
+        <v>341.1708</v>
       </c>
       <c r="G6" t="n">
-        <v>-10027.64443545378</v>
+        <v>10426.97556454622</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -606,8 +616,14 @@
         <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>239</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,22 +634,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D7" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F7" t="n">
-        <v>3988.1964</v>
+        <v>15274.3718</v>
       </c>
       <c r="G7" t="n">
-        <v>-10027.64443545378</v>
+        <v>10426.97556454622</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +670,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E8" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" t="n">
-        <v>2389.0487</v>
+        <v>327.7435</v>
       </c>
       <c r="G8" t="n">
-        <v>-10027.64443545378</v>
+        <v>10099.23206454622</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +706,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>239.3</v>
+        <v>240</v>
       </c>
       <c r="C9" t="n">
-        <v>239.3</v>
+        <v>240</v>
       </c>
       <c r="D9" t="n">
-        <v>239.3</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>239.3</v>
+        <v>240</v>
       </c>
       <c r="F9" t="n">
-        <v>98</v>
+        <v>785</v>
       </c>
       <c r="G9" t="n">
-        <v>-10125.64443545378</v>
+        <v>9314.232064546222</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +742,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="C10" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="D10" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="E10" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="F10" t="n">
-        <v>300.09</v>
+        <v>762</v>
       </c>
       <c r="G10" t="n">
-        <v>-9825.55443545378</v>
+        <v>9314.232064546222</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +778,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="C11" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="D11" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="E11" t="n">
-        <v>241.8</v>
+        <v>240</v>
       </c>
       <c r="F11" t="n">
-        <v>596.9236</v>
+        <v>1609.7736</v>
       </c>
       <c r="G11" t="n">
-        <v>-9825.55443545378</v>
+        <v>9314.232064546222</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +814,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>241.8</v>
+        <v>241</v>
       </c>
       <c r="C12" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="D12" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="E12" t="n">
-        <v>241.8</v>
+        <v>241</v>
       </c>
       <c r="F12" t="n">
-        <v>96</v>
+        <v>443.4504</v>
       </c>
       <c r="G12" t="n">
-        <v>-9729.55443545378</v>
+        <v>9757.682464546222</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +850,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="C13" t="n">
-        <v>244.4</v>
+        <v>245</v>
       </c>
       <c r="D13" t="n">
-        <v>244.4</v>
+        <v>245</v>
       </c>
       <c r="E13" t="n">
-        <v>243.1</v>
+        <v>244</v>
       </c>
       <c r="F13" t="n">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G13" t="n">
-        <v>-9617.55443545378</v>
+        <v>9851.682464546222</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -882,10 +898,10 @@
         <v>244.4</v>
       </c>
       <c r="F14" t="n">
-        <v>1.0381</v>
+        <v>832.1457</v>
       </c>
       <c r="G14" t="n">
-        <v>-9617.55443545378</v>
+        <v>9019.536764546221</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +922,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>244.4</v>
+        <v>245</v>
       </c>
       <c r="C15" t="n">
-        <v>247.8</v>
+        <v>245</v>
       </c>
       <c r="D15" t="n">
-        <v>247.8</v>
+        <v>245</v>
       </c>
       <c r="E15" t="n">
-        <v>244.4</v>
+        <v>245</v>
       </c>
       <c r="F15" t="n">
-        <v>236.7571</v>
+        <v>0.13</v>
       </c>
       <c r="G15" t="n">
-        <v>-9380.797335453779</v>
+        <v>9019.66676454622</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +958,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C16" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D16" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E16" t="n">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F16" t="n">
-        <v>1616.2188</v>
+        <v>67</v>
       </c>
       <c r="G16" t="n">
-        <v>-10997.01613545378</v>
+        <v>9086.66676454622</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -981,19 +997,19 @@
         <v>245</v>
       </c>
       <c r="C17" t="n">
-        <v>246</v>
+        <v>248.9</v>
       </c>
       <c r="D17" t="n">
-        <v>246</v>
+        <v>248.9</v>
       </c>
       <c r="E17" t="n">
         <v>245</v>
       </c>
       <c r="F17" t="n">
-        <v>240.028</v>
+        <v>1573.7864</v>
       </c>
       <c r="G17" t="n">
-        <v>-10756.98813545378</v>
+        <v>10660.45316454622</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1030,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>247</v>
+        <v>245.4</v>
       </c>
       <c r="C18" t="n">
-        <v>247</v>
+        <v>245.4</v>
       </c>
       <c r="D18" t="n">
-        <v>247</v>
+        <v>245.4</v>
       </c>
       <c r="E18" t="n">
-        <v>247</v>
+        <v>245.4</v>
       </c>
       <c r="F18" t="n">
-        <v>143.1142</v>
+        <v>239</v>
       </c>
       <c r="G18" t="n">
-        <v>-10613.87393545378</v>
+        <v>10421.45316454622</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1066,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>247</v>
+        <v>244.4</v>
       </c>
       <c r="C19" t="n">
-        <v>246</v>
+        <v>244.4</v>
       </c>
       <c r="D19" t="n">
-        <v>248</v>
+        <v>244.4</v>
       </c>
       <c r="E19" t="n">
-        <v>246</v>
+        <v>244.4</v>
       </c>
       <c r="F19" t="n">
-        <v>440.2406</v>
+        <v>69.895</v>
       </c>
       <c r="G19" t="n">
-        <v>-11054.11453545378</v>
+        <v>10351.55816454622</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1102,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>245.3</v>
+        <v>244.4</v>
       </c>
       <c r="C20" t="n">
-        <v>245.3</v>
+        <v>244.4</v>
       </c>
       <c r="D20" t="n">
-        <v>245.3</v>
+        <v>244.4</v>
       </c>
       <c r="E20" t="n">
-        <v>245.3</v>
+        <v>244.4</v>
       </c>
       <c r="F20" t="n">
-        <v>13.48</v>
+        <v>4138.6755</v>
       </c>
       <c r="G20" t="n">
-        <v>-11067.59453545378</v>
+        <v>10351.55816454622</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1138,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>245.4</v>
+        <v>244.4</v>
       </c>
       <c r="C21" t="n">
-        <v>245.4</v>
+        <v>244.4</v>
       </c>
       <c r="D21" t="n">
-        <v>245.4</v>
+        <v>244.4</v>
       </c>
       <c r="E21" t="n">
-        <v>245.4</v>
+        <v>244.4</v>
       </c>
       <c r="F21" t="n">
-        <v>7548.5964</v>
+        <v>820.8366</v>
       </c>
       <c r="G21" t="n">
-        <v>-3518.998135453778</v>
+        <v>10351.55816454622</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1174,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>247.9</v>
+        <v>242</v>
       </c>
       <c r="C22" t="n">
-        <v>247.9</v>
+        <v>242</v>
       </c>
       <c r="D22" t="n">
-        <v>247.9</v>
+        <v>242</v>
       </c>
       <c r="E22" t="n">
-        <v>247.9</v>
+        <v>242</v>
       </c>
       <c r="F22" t="n">
-        <v>232</v>
+        <v>16238.9134</v>
       </c>
       <c r="G22" t="n">
-        <v>-3286.998135453778</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,31 +1210,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>248.7</v>
+        <v>242</v>
       </c>
       <c r="C23" t="n">
-        <v>248.7</v>
+        <v>242</v>
       </c>
       <c r="D23" t="n">
-        <v>248.7</v>
+        <v>242</v>
       </c>
       <c r="E23" t="n">
-        <v>248.7</v>
+        <v>242</v>
       </c>
       <c r="F23" t="n">
-        <v>223.1359</v>
+        <v>16166.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>-3063.862235453777</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>242</v>
+      </c>
+      <c r="K23" t="n">
+        <v>242</v>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
@@ -1230,32 +1250,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C24" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D24" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E24" t="n">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F24" t="n">
-        <v>558.3744</v>
+        <v>1159.008</v>
       </c>
       <c r="G24" t="n">
-        <v>-3622.236635453778</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>242</v>
+      </c>
+      <c r="K24" t="n">
+        <v>242</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1266,32 +1294,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>247.3</v>
+        <v>242</v>
       </c>
       <c r="C25" t="n">
-        <v>247.3</v>
+        <v>242</v>
       </c>
       <c r="D25" t="n">
-        <v>247.3</v>
+        <v>242</v>
       </c>
       <c r="E25" t="n">
-        <v>247.3</v>
+        <v>242</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>8376.7088</v>
       </c>
       <c r="G25" t="n">
-        <v>-3522.236635453778</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>242</v>
+      </c>
+      <c r="K25" t="n">
+        <v>242</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1302,31 +1338,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C26" t="n">
-        <v>249.7</v>
+        <v>242</v>
       </c>
       <c r="D26" t="n">
-        <v>249.7</v>
+        <v>242</v>
       </c>
       <c r="E26" t="n">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F26" t="n">
-        <v>863.2589</v>
+        <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>-2658.977735453777</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>242</v>
+      </c>
+      <c r="K26" t="n">
+        <v>242</v>
+      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1338,32 +1378,40 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>249.6</v>
+        <v>242</v>
       </c>
       <c r="C27" t="n">
-        <v>249.6</v>
+        <v>242</v>
       </c>
       <c r="D27" t="n">
-        <v>249.6</v>
+        <v>242</v>
       </c>
       <c r="E27" t="n">
-        <v>249.6</v>
+        <v>242</v>
       </c>
       <c r="F27" t="n">
-        <v>690.7098</v>
+        <v>250</v>
       </c>
       <c r="G27" t="n">
-        <v>-3349.687535453777</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>242</v>
+      </c>
+      <c r="K27" t="n">
+        <v>242</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1374,32 +1422,40 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>249.7</v>
+        <v>242</v>
       </c>
       <c r="C28" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D28" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E28" t="n">
-        <v>249.6</v>
+        <v>242</v>
       </c>
       <c r="F28" t="n">
-        <v>6848.4052</v>
+        <v>3277</v>
       </c>
       <c r="G28" t="n">
-        <v>3498.717664546223</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>242</v>
+      </c>
+      <c r="K28" t="n">
+        <v>242</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1410,31 +1466,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C29" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D29" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E29" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F29" t="n">
-        <v>123.7182</v>
+        <v>10967.0305</v>
       </c>
       <c r="G29" t="n">
-        <v>3498.717664546223</v>
+        <v>-5887.355235453781</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>242</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242</v>
+      </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
@@ -1446,32 +1506,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>249.1</v>
+        <v>238</v>
       </c>
       <c r="C30" t="n">
-        <v>250.1</v>
+        <v>238</v>
       </c>
       <c r="D30" t="n">
-        <v>250.1</v>
+        <v>238</v>
       </c>
       <c r="E30" t="n">
-        <v>249.1</v>
+        <v>238</v>
       </c>
       <c r="F30" t="n">
-        <v>1520.1379</v>
+        <v>8660</v>
       </c>
       <c r="G30" t="n">
-        <v>5018.855564546223</v>
+        <v>-14547.35523545378</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>242</v>
+      </c>
+      <c r="K30" t="n">
+        <v>242</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1482,32 +1550,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>250.1</v>
+        <v>238</v>
       </c>
       <c r="C31" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="D31" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="E31" t="n">
-        <v>250.1</v>
+        <v>238</v>
       </c>
       <c r="F31" t="n">
-        <v>1053.3549</v>
+        <v>2287.0411</v>
       </c>
       <c r="G31" t="n">
-        <v>5018.855564546223</v>
+        <v>-12260.31413545378</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>238</v>
+      </c>
+      <c r="K31" t="n">
+        <v>242</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1518,32 +1594,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="C32" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="D32" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="E32" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="F32" t="n">
-        <v>1274.2061</v>
+        <v>158.4542</v>
       </c>
       <c r="G32" t="n">
-        <v>5018.855564546223</v>
+        <v>-12260.31413545378</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>239</v>
+      </c>
+      <c r="K32" t="n">
+        <v>242</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1554,32 +1638,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="C33" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="D33" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="E33" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="F33" t="n">
-        <v>487.1461</v>
+        <v>114</v>
       </c>
       <c r="G33" t="n">
-        <v>5018.855564546223</v>
+        <v>-12260.31413545378</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>239</v>
+      </c>
+      <c r="K33" t="n">
+        <v>242</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1590,32 +1682,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="C34" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="D34" t="n">
-        <v>250.9</v>
+        <v>240</v>
       </c>
       <c r="E34" t="n">
-        <v>250.1</v>
+        <v>239</v>
       </c>
       <c r="F34" t="n">
-        <v>238</v>
+        <v>2232.6697</v>
       </c>
       <c r="G34" t="n">
-        <v>5018.855564546223</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>239</v>
+      </c>
+      <c r="K34" t="n">
+        <v>242</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1626,32 +1726,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="C35" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="D35" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="E35" t="n">
-        <v>250.1</v>
+        <v>240</v>
       </c>
       <c r="F35" t="n">
-        <v>40.862</v>
+        <v>6820.9712</v>
       </c>
       <c r="G35" t="n">
-        <v>5018.855564546223</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>240</v>
+      </c>
+      <c r="K35" t="n">
+        <v>242</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1662,32 +1770,40 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>250.8</v>
+        <v>240</v>
       </c>
       <c r="C36" t="n">
-        <v>254.9</v>
+        <v>240</v>
       </c>
       <c r="D36" t="n">
-        <v>254.9</v>
+        <v>240</v>
       </c>
       <c r="E36" t="n">
-        <v>250.8</v>
+        <v>240</v>
       </c>
       <c r="F36" t="n">
-        <v>1180</v>
+        <v>3988.1964</v>
       </c>
       <c r="G36" t="n">
-        <v>6198.855564546223</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>240</v>
+      </c>
+      <c r="K36" t="n">
+        <v>242</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1698,32 +1814,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="C37" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="D37" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="E37" t="n">
-        <v>251.2</v>
+        <v>240</v>
       </c>
       <c r="F37" t="n">
-        <v>199.95</v>
+        <v>2389.0487</v>
       </c>
       <c r="G37" t="n">
-        <v>5998.905564546223</v>
+        <v>-10027.64443545378</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>240</v>
+      </c>
+      <c r="K37" t="n">
+        <v>242</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1734,32 +1858,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>253</v>
+        <v>239.3</v>
       </c>
       <c r="C38" t="n">
-        <v>252</v>
+        <v>239.3</v>
       </c>
       <c r="D38" t="n">
-        <v>253</v>
+        <v>239.3</v>
       </c>
       <c r="E38" t="n">
-        <v>252</v>
+        <v>239.3</v>
       </c>
       <c r="F38" t="n">
-        <v>672.3133</v>
+        <v>98</v>
       </c>
       <c r="G38" t="n">
-        <v>6671.218864546223</v>
+        <v>-10125.64443545378</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>240</v>
+      </c>
+      <c r="K38" t="n">
+        <v>242</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,32 +1902,40 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>254</v>
+        <v>241.8</v>
       </c>
       <c r="C39" t="n">
-        <v>254</v>
+        <v>241.8</v>
       </c>
       <c r="D39" t="n">
-        <v>258</v>
+        <v>241.8</v>
       </c>
       <c r="E39" t="n">
-        <v>253</v>
+        <v>241.8</v>
       </c>
       <c r="F39" t="n">
-        <v>6364.8776</v>
+        <v>300.09</v>
       </c>
       <c r="G39" t="n">
-        <v>13036.09646454622</v>
+        <v>-9825.55443545378</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="K39" t="n">
+        <v>242</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1806,32 +1946,40 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>255</v>
+        <v>241.8</v>
       </c>
       <c r="C40" t="n">
-        <v>257</v>
+        <v>241.8</v>
       </c>
       <c r="D40" t="n">
-        <v>257</v>
+        <v>241.8</v>
       </c>
       <c r="E40" t="n">
-        <v>255</v>
+        <v>241.8</v>
       </c>
       <c r="F40" t="n">
-        <v>146.5382</v>
+        <v>596.9236</v>
       </c>
       <c r="G40" t="n">
-        <v>13182.63466454622</v>
+        <v>-9825.55443545378</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K40" t="n">
+        <v>242</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1842,32 +1990,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>255.4</v>
+        <v>241.8</v>
       </c>
       <c r="C41" t="n">
-        <v>257</v>
+        <v>243.1</v>
       </c>
       <c r="D41" t="n">
-        <v>257</v>
+        <v>243.1</v>
       </c>
       <c r="E41" t="n">
-        <v>255.4</v>
+        <v>241.8</v>
       </c>
       <c r="F41" t="n">
-        <v>175.3785</v>
+        <v>96</v>
       </c>
       <c r="G41" t="n">
-        <v>13182.63466454622</v>
+        <v>-9729.55443545378</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>242</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1878,32 +2034,38 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>257.9</v>
+        <v>243.1</v>
       </c>
       <c r="C42" t="n">
-        <v>257</v>
+        <v>244.4</v>
       </c>
       <c r="D42" t="n">
-        <v>257.9</v>
+        <v>244.4</v>
       </c>
       <c r="E42" t="n">
-        <v>257</v>
+        <v>243.1</v>
       </c>
       <c r="F42" t="n">
-        <v>180.0828</v>
+        <v>112</v>
       </c>
       <c r="G42" t="n">
-        <v>13182.63466454622</v>
+        <v>-9617.55443545378</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>242</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1914,32 +2076,38 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="C43" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="D43" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="E43" t="n">
-        <v>257.8</v>
+        <v>244.4</v>
       </c>
       <c r="F43" t="n">
-        <v>141.6104</v>
+        <v>1.0381</v>
       </c>
       <c r="G43" t="n">
-        <v>13324.24506454622</v>
+        <v>-9617.55443545378</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>242</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1950,32 +2118,38 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>258</v>
+        <v>244.4</v>
       </c>
       <c r="C44" t="n">
-        <v>258</v>
+        <v>247.8</v>
       </c>
       <c r="D44" t="n">
-        <v>258</v>
+        <v>247.8</v>
       </c>
       <c r="E44" t="n">
-        <v>258</v>
+        <v>244.4</v>
       </c>
       <c r="F44" t="n">
-        <v>514.1541999999999</v>
+        <v>236.7571</v>
       </c>
       <c r="G44" t="n">
-        <v>13838.39926454622</v>
+        <v>-9380.797335453779</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>242</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1986,32 +2160,38 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C45" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D45" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="E45" t="n">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="F45" t="n">
-        <v>125.0761</v>
+        <v>1616.2188</v>
       </c>
       <c r="G45" t="n">
-        <v>13713.32316454622</v>
+        <v>-10997.01613545378</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>242</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2022,32 +2202,38 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>255.1</v>
+        <v>245</v>
       </c>
       <c r="C46" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="D46" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E46" t="n">
-        <v>255.1</v>
+        <v>245</v>
       </c>
       <c r="F46" t="n">
-        <v>750</v>
+        <v>240.028</v>
       </c>
       <c r="G46" t="n">
-        <v>13713.32316454622</v>
+        <v>-10756.98813545378</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>242</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2058,22 +2244,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C47" t="n">
-        <v>253.1</v>
+        <v>247</v>
       </c>
       <c r="D47" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E47" t="n">
-        <v>253.1</v>
+        <v>247</v>
       </c>
       <c r="F47" t="n">
-        <v>2746.5781</v>
+        <v>143.1142</v>
       </c>
       <c r="G47" t="n">
-        <v>10966.74506454622</v>
+        <v>-10613.87393545378</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2082,8 +2268,14 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>242</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2094,22 +2286,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C48" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D48" t="n">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E48" t="n">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F48" t="n">
-        <v>280.7887</v>
+        <v>440.2406</v>
       </c>
       <c r="G48" t="n">
-        <v>11247.53376454622</v>
+        <v>-11054.11453545378</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2118,8 +2310,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>242</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2130,22 +2328,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="C49" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="D49" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="E49" t="n">
-        <v>257</v>
+        <v>245.3</v>
       </c>
       <c r="F49" t="n">
-        <v>219.9864</v>
+        <v>13.48</v>
       </c>
       <c r="G49" t="n">
-        <v>11467.52016454622</v>
+        <v>-11067.59453545378</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2154,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>242</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2166,32 +2370,38 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="C50" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="D50" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="E50" t="n">
-        <v>257</v>
+        <v>245.4</v>
       </c>
       <c r="F50" t="n">
-        <v>663.2456</v>
+        <v>7548.5964</v>
       </c>
       <c r="G50" t="n">
-        <v>11467.52016454622</v>
+        <v>-3518.998135453778</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>242</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2202,32 +2412,38 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="C51" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="D51" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="E51" t="n">
-        <v>257</v>
+        <v>247.9</v>
       </c>
       <c r="F51" t="n">
-        <v>129</v>
+        <v>232</v>
       </c>
       <c r="G51" t="n">
-        <v>11467.52016454622</v>
+        <v>-3286.998135453778</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>242</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2238,32 +2454,38 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="C52" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="D52" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="E52" t="n">
-        <v>256.1</v>
+        <v>248.7</v>
       </c>
       <c r="F52" t="n">
-        <v>137.2999</v>
+        <v>223.1359</v>
       </c>
       <c r="G52" t="n">
-        <v>11330.22026454622</v>
+        <v>-3063.862235453777</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>242</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2274,22 +2496,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C53" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D53" t="n">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="E53" t="n">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F53" t="n">
-        <v>332.1174</v>
+        <v>558.3744</v>
       </c>
       <c r="G53" t="n">
-        <v>10998.10286454622</v>
+        <v>-3622.236635453778</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2298,8 +2520,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>242</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2310,22 +2538,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="C54" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="D54" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="E54" t="n">
-        <v>253</v>
+        <v>247.3</v>
       </c>
       <c r="F54" t="n">
-        <v>277.4551</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>10998.10286454622</v>
+        <v>-3522.236635453778</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2334,8 +2562,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>242</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2346,22 +2580,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C55" t="n">
-        <v>253</v>
+        <v>249.7</v>
       </c>
       <c r="D55" t="n">
-        <v>253</v>
+        <v>249.7</v>
       </c>
       <c r="E55" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F55" t="n">
-        <v>78</v>
+        <v>863.2589</v>
       </c>
       <c r="G55" t="n">
-        <v>10998.10286454622</v>
+        <v>-2658.977735453777</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2370,8 +2604,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>242</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2622,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="C56" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="D56" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="E56" t="n">
-        <v>253</v>
+        <v>249.6</v>
       </c>
       <c r="F56" t="n">
-        <v>19.4854</v>
+        <v>690.7098</v>
       </c>
       <c r="G56" t="n">
-        <v>10998.10286454622</v>
+        <v>-3349.687535453777</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,8 +2646,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>242</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2418,22 +2664,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="C57" t="n">
         <v>250</v>
-      </c>
-      <c r="C57" t="n">
-        <v>246.1</v>
       </c>
       <c r="D57" t="n">
         <v>250</v>
       </c>
       <c r="E57" t="n">
-        <v>246.1</v>
+        <v>249.6</v>
       </c>
       <c r="F57" t="n">
-        <v>12217.1949</v>
+        <v>6848.4052</v>
       </c>
       <c r="G57" t="n">
-        <v>-1219.092035453777</v>
+        <v>3498.717664546223</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2442,8 +2688,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>242</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2454,22 +2706,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="C58" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="D58" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="E58" t="n">
-        <v>248.6</v>
+        <v>250</v>
       </c>
       <c r="F58" t="n">
-        <v>15521.5071</v>
+        <v>123.7182</v>
       </c>
       <c r="G58" t="n">
-        <v>14302.41506454622</v>
+        <v>3498.717664546223</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2478,8 +2730,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>242</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2490,22 +2748,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>248.6</v>
+        <v>249.1</v>
       </c>
       <c r="C59" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="D59" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="E59" t="n">
-        <v>248.6</v>
+        <v>249.1</v>
       </c>
       <c r="F59" t="n">
-        <v>3250</v>
+        <v>1520.1379</v>
       </c>
       <c r="G59" t="n">
-        <v>14302.41506454622</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2514,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>242</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2526,22 +2790,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C60" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="D60" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="E60" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F60" t="n">
-        <v>233.4916</v>
+        <v>1053.3549</v>
       </c>
       <c r="G60" t="n">
-        <v>14068.92346454622</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2550,8 +2814,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>242</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2562,36 +2832,38 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C61" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="D61" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="E61" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F61" t="n">
-        <v>270</v>
+        <v>1274.2061</v>
       </c>
       <c r="G61" t="n">
-        <v>14068.92346454622</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>248</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>248</v>
-      </c>
-      <c r="L61" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2602,38 +2874,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="C62" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="D62" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="E62" t="n">
-        <v>247</v>
+        <v>250.1</v>
       </c>
       <c r="F62" t="n">
-        <v>456.2017</v>
+        <v>487.1461</v>
       </c>
       <c r="G62" t="n">
-        <v>13612.72176454622</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>248</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2646,38 +2916,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C63" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="D63" t="n">
-        <v>248</v>
+        <v>250.9</v>
       </c>
       <c r="E63" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F63" t="n">
-        <v>7.1979</v>
+        <v>238</v>
       </c>
       <c r="G63" t="n">
-        <v>13619.91966454622</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>247</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M63" t="n">
@@ -2690,38 +2958,36 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="C64" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="D64" t="n">
-        <v>248.6</v>
+        <v>250.1</v>
       </c>
       <c r="E64" t="n">
-        <v>248</v>
+        <v>250.1</v>
       </c>
       <c r="F64" t="n">
-        <v>500</v>
+        <v>40.862</v>
       </c>
       <c r="G64" t="n">
-        <v>14119.91966454622</v>
+        <v>5018.855564546223</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>248</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
@@ -2734,34 +3000,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>248.6</v>
+        <v>250.8</v>
       </c>
       <c r="C65" t="n">
-        <v>248.6</v>
+        <v>254.9</v>
       </c>
       <c r="D65" t="n">
-        <v>248.6</v>
+        <v>254.9</v>
       </c>
       <c r="E65" t="n">
-        <v>248.6</v>
+        <v>250.8</v>
       </c>
       <c r="F65" t="n">
-        <v>1250</v>
+        <v>1180</v>
       </c>
       <c r="G65" t="n">
-        <v>14119.91966454622</v>
+        <v>6198.855564546223</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>248.6</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2778,34 +3042,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="C66" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="D66" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="E66" t="n">
-        <v>248.6</v>
+        <v>251.2</v>
       </c>
       <c r="F66" t="n">
-        <v>555</v>
+        <v>199.95</v>
       </c>
       <c r="G66" t="n">
-        <v>14119.91966454622</v>
+        <v>5998.905564546223</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>248.6</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2822,34 +3084,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C67" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D67" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E67" t="n">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F67" t="n">
-        <v>173.9637</v>
+        <v>672.3133</v>
       </c>
       <c r="G67" t="n">
-        <v>13945.95596454622</v>
+        <v>6671.218864546223</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>248.6</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2866,34 +3126,32 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C68" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D68" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E68" t="n">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>6364.8776</v>
       </c>
       <c r="G68" t="n">
-        <v>13945.95596454622</v>
+        <v>13036.09646454622</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>248</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -2910,34 +3168,32 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C69" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D69" t="n">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="E69" t="n">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F69" t="n">
-        <v>84</v>
+        <v>146.5382</v>
       </c>
       <c r="G69" t="n">
-        <v>13861.95596454622</v>
+        <v>13182.63466454622</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>248</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -2954,84 +3210,76 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>247</v>
+        <v>255.4</v>
       </c>
       <c r="C70" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D70" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E70" t="n">
-        <v>247</v>
+        <v>255.4</v>
       </c>
       <c r="F70" t="n">
-        <v>56.5706</v>
+        <v>175.3785</v>
       </c>
       <c r="G70" t="n">
-        <v>13861.95596454622</v>
+        <v>13182.63466454622</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
-        <v>247</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>1.05698347107438</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.045798319327731</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>247</v>
+        <v>257.9</v>
       </c>
       <c r="C71" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D71" t="n">
-        <v>247</v>
+        <v>257.9</v>
       </c>
       <c r="E71" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F71" t="n">
-        <v>21.1197</v>
+        <v>180.0828</v>
       </c>
       <c r="G71" t="n">
-        <v>13861.95596454622</v>
+        <v>13182.63466454622</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
-        <v>247</v>
-      </c>
-      <c r="K71" t="n">
-        <v>248</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3042,40 +3290,32 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="C72" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="D72" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="E72" t="n">
-        <v>245</v>
+        <v>257.8</v>
       </c>
       <c r="F72" t="n">
-        <v>16.6926</v>
+        <v>141.6104</v>
       </c>
       <c r="G72" t="n">
-        <v>13845.26336454622</v>
+        <v>13324.24506454622</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>247</v>
-      </c>
-      <c r="K72" t="n">
-        <v>248</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3086,40 +3326,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C73" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="D73" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="E73" t="n">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="F73" t="n">
-        <v>173.052</v>
+        <v>514.1541999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>14018.31536454622</v>
+        <v>13838.39926454622</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>245</v>
-      </c>
-      <c r="K73" t="n">
-        <v>248</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3130,40 +3362,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C74" t="n">
-        <v>249.2</v>
+        <v>257</v>
       </c>
       <c r="D74" t="n">
-        <v>249.2</v>
+        <v>257</v>
       </c>
       <c r="E74" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F74" t="n">
-        <v>750</v>
+        <v>125.0761</v>
       </c>
       <c r="G74" t="n">
-        <v>14768.31536454622</v>
+        <v>13713.32316454622</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>247</v>
-      </c>
-      <c r="K74" t="n">
-        <v>248</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3174,38 +3398,32 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>248.2</v>
+        <v>255.1</v>
       </c>
       <c r="C75" t="n">
-        <v>248.2</v>
+        <v>257</v>
       </c>
       <c r="D75" t="n">
-        <v>248.2</v>
+        <v>257</v>
       </c>
       <c r="E75" t="n">
-        <v>248.2</v>
+        <v>255.1</v>
       </c>
       <c r="F75" t="n">
-        <v>233</v>
+        <v>750</v>
       </c>
       <c r="G75" t="n">
-        <v>14535.31536454622</v>
+        <v>13713.32316454622</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>248</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3216,38 +3434,32 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>248.2</v>
+        <v>255</v>
       </c>
       <c r="C76" t="n">
-        <v>248.2</v>
+        <v>253.1</v>
       </c>
       <c r="D76" t="n">
-        <v>248.2</v>
+        <v>255</v>
       </c>
       <c r="E76" t="n">
-        <v>248.2</v>
+        <v>253.1</v>
       </c>
       <c r="F76" t="n">
-        <v>3170.0667</v>
+        <v>2746.5781</v>
       </c>
       <c r="G76" t="n">
-        <v>14535.31536454622</v>
+        <v>10966.74506454622</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>248</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3258,38 +3470,32 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C77" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D77" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E77" t="n">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="F77" t="n">
-        <v>156.486</v>
+        <v>280.7887</v>
       </c>
       <c r="G77" t="n">
-        <v>14378.82936454622</v>
+        <v>11247.53376454622</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>248</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3300,38 +3506,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C78" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="D78" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E78" t="n">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F78" t="n">
-        <v>195.7275</v>
+        <v>219.9864</v>
       </c>
       <c r="G78" t="n">
-        <v>14378.82936454622</v>
+        <v>11467.52016454622</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>248</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3342,38 +3542,32 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>247.6</v>
+        <v>257</v>
       </c>
       <c r="C79" t="n">
-        <v>245.3</v>
+        <v>257</v>
       </c>
       <c r="D79" t="n">
-        <v>247.6</v>
+        <v>257</v>
       </c>
       <c r="E79" t="n">
-        <v>245.3</v>
+        <v>257</v>
       </c>
       <c r="F79" t="n">
-        <v>46306.1214</v>
+        <v>663.2456</v>
       </c>
       <c r="G79" t="n">
-        <v>-31927.29203545378</v>
+        <v>11467.52016454622</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>248</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3384,38 +3578,32 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>247.6</v>
+        <v>257</v>
       </c>
       <c r="C80" t="n">
-        <v>248.6</v>
+        <v>257</v>
       </c>
       <c r="D80" t="n">
-        <v>248.6</v>
+        <v>257</v>
       </c>
       <c r="E80" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="F80" t="n">
-        <v>811.1944999999999</v>
+        <v>129</v>
       </c>
       <c r="G80" t="n">
-        <v>-31116.09753545378</v>
+        <v>11467.52016454622</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>248</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3426,38 +3614,32 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>246</v>
+        <v>256.1</v>
       </c>
       <c r="C81" t="n">
-        <v>249.5</v>
+        <v>256.1</v>
       </c>
       <c r="D81" t="n">
-        <v>249.5</v>
+        <v>256.1</v>
       </c>
       <c r="E81" t="n">
-        <v>246</v>
+        <v>256.1</v>
       </c>
       <c r="F81" t="n">
-        <v>507.1255</v>
+        <v>137.2999</v>
       </c>
       <c r="G81" t="n">
-        <v>-30608.97203545378</v>
+        <v>11330.22026454622</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>248</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3468,38 +3650,32 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C82" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D82" t="n">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="E82" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F82" t="n">
-        <v>160.9148</v>
+        <v>332.1174</v>
       </c>
       <c r="G82" t="n">
-        <v>-30769.88683545378</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>248</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3510,38 +3686,32 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C83" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D83" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E83" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F83" t="n">
-        <v>22.3283</v>
+        <v>277.4551</v>
       </c>
       <c r="G83" t="n">
-        <v>-30769.88683545378</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>248</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3552,38 +3722,32 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="C84" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="D84" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="E84" t="n">
-        <v>248.8</v>
+        <v>253</v>
       </c>
       <c r="F84" t="n">
-        <v>1897.3697</v>
+        <v>78</v>
       </c>
       <c r="G84" t="n">
-        <v>-28872.51713545378</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>248</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3594,38 +3758,32 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C85" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D85" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="E85" t="n">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F85" t="n">
-        <v>125.5237</v>
+        <v>19.4854</v>
       </c>
       <c r="G85" t="n">
-        <v>-28746.99343545378</v>
+        <v>10998.10286454622</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>248</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3636,38 +3794,32 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>250.1</v>
+        <v>250</v>
       </c>
       <c r="C86" t="n">
-        <v>250.1</v>
+        <v>246.1</v>
       </c>
       <c r="D86" t="n">
-        <v>250.1</v>
+        <v>250</v>
       </c>
       <c r="E86" t="n">
-        <v>250.1</v>
+        <v>246.1</v>
       </c>
       <c r="F86" t="n">
-        <v>68.105</v>
+        <v>12217.1949</v>
       </c>
       <c r="G86" t="n">
-        <v>-28678.88843545378</v>
+        <v>-1219.092035453777</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>248</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3678,22 +3830,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="C87" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="D87" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="E87" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="F87" t="n">
-        <v>132.0396</v>
+        <v>15521.5071</v>
       </c>
       <c r="G87" t="n">
-        <v>-28678.88843545378</v>
+        <v>14302.41506454622</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3702,14 +3854,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>248</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3720,22 +3866,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="C88" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="D88" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="E88" t="n">
-        <v>250.1</v>
+        <v>248.6</v>
       </c>
       <c r="F88" t="n">
-        <v>204.2041</v>
+        <v>3250</v>
       </c>
       <c r="G88" t="n">
-        <v>-28678.88843545378</v>
+        <v>14302.41506454622</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3744,14 +3890,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>248</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3762,22 +3902,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="C89" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="D89" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="E89" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="F89" t="n">
-        <v>97</v>
+        <v>233.4916</v>
       </c>
       <c r="G89" t="n">
-        <v>-28581.88843545378</v>
+        <v>14068.92346454622</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3786,14 +3926,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>248</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +3938,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="C90" t="n">
-        <v>251.1</v>
+        <v>248</v>
       </c>
       <c r="D90" t="n">
-        <v>251.1</v>
+        <v>248</v>
       </c>
       <c r="E90" t="n">
-        <v>250.2</v>
+        <v>248</v>
       </c>
       <c r="F90" t="n">
-        <v>155</v>
+        <v>270</v>
       </c>
       <c r="G90" t="n">
-        <v>-28426.88843545378</v>
+        <v>14068.92346454622</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3828,14 +3962,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>248</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3846,22 +3974,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>251.1</v>
+        <v>247</v>
       </c>
       <c r="C91" t="n">
-        <v>252.9</v>
+        <v>247</v>
       </c>
       <c r="D91" t="n">
-        <v>252.9</v>
+        <v>247</v>
       </c>
       <c r="E91" t="n">
-        <v>251.1</v>
+        <v>247</v>
       </c>
       <c r="F91" t="n">
-        <v>3700</v>
+        <v>456.2017</v>
       </c>
       <c r="G91" t="n">
-        <v>-24726.88843545378</v>
+        <v>13612.72176454622</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3870,14 +3998,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>248</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3888,22 +4010,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C92" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D92" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E92" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F92" t="n">
-        <v>722.7939</v>
+        <v>7.1979</v>
       </c>
       <c r="G92" t="n">
-        <v>-24004.09453545378</v>
+        <v>13619.91966454622</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3912,14 +4034,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>248</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3930,22 +4046,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>252.1</v>
+        <v>248</v>
       </c>
       <c r="C93" t="n">
-        <v>252.1</v>
+        <v>248.6</v>
       </c>
       <c r="D93" t="n">
-        <v>252.1</v>
+        <v>248.6</v>
       </c>
       <c r="E93" t="n">
-        <v>252.1</v>
+        <v>248</v>
       </c>
       <c r="F93" t="n">
-        <v>261.3836</v>
+        <v>500</v>
       </c>
       <c r="G93" t="n">
-        <v>-24265.47813545378</v>
+        <v>14119.91966454622</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3954,14 +4070,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>248</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3972,22 +4082,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="C94" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="D94" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="E94" t="n">
-        <v>252</v>
+        <v>248.6</v>
       </c>
       <c r="F94" t="n">
-        <v>171.0195</v>
+        <v>1250</v>
       </c>
       <c r="G94" t="n">
-        <v>-24436.49763545378</v>
+        <v>14119.91966454622</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3996,14 +4106,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>248</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4014,22 +4118,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="C95" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="D95" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="E95" t="n">
-        <v>252.4</v>
+        <v>248.6</v>
       </c>
       <c r="F95" t="n">
-        <v>171</v>
+        <v>555</v>
       </c>
       <c r="G95" t="n">
-        <v>-24265.49763545378</v>
+        <v>14119.91966454622</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4038,14 +4142,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>248</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4154,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="C96" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="D96" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="E96" t="n">
-        <v>249.2</v>
+        <v>248</v>
       </c>
       <c r="F96" t="n">
-        <v>3.9825</v>
+        <v>173.9637</v>
       </c>
       <c r="G96" t="n">
-        <v>-24269.48013545378</v>
+        <v>13945.95596454622</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4080,14 +4178,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>248</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4098,22 +4190,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C97" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="D97" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="E97" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="F97" t="n">
-        <v>252.2963</v>
+        <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>-24017.18383545378</v>
+        <v>13945.95596454622</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4122,14 +4214,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>248</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4140,22 +4226,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="C98" t="n">
-        <v>255.3</v>
+        <v>247</v>
       </c>
       <c r="D98" t="n">
-        <v>255.3</v>
+        <v>248</v>
       </c>
       <c r="E98" t="n">
-        <v>255.3</v>
+        <v>247</v>
       </c>
       <c r="F98" t="n">
-        <v>900</v>
+        <v>84</v>
       </c>
       <c r="G98" t="n">
-        <v>-24017.18383545378</v>
+        <v>13861.95596454622</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4164,14 +4250,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>248</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4182,22 +4262,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="C99" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="D99" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="E99" t="n">
-        <v>255.4</v>
+        <v>247</v>
       </c>
       <c r="F99" t="n">
-        <v>261.3836</v>
+        <v>56.5706</v>
       </c>
       <c r="G99" t="n">
-        <v>-23755.80023545377</v>
+        <v>13861.95596454622</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4206,14 +4286,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>248</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4224,22 +4298,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C100" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D100" t="n">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="E100" t="n">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F100" t="n">
-        <v>1382.0169</v>
+        <v>21.1197</v>
       </c>
       <c r="G100" t="n">
-        <v>-22373.78333545378</v>
+        <v>13861.95596454622</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4248,14 +4322,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>248</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4266,22 +4334,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C101" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="D101" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E101" t="n">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="F101" t="n">
-        <v>710.9831</v>
+        <v>16.6926</v>
       </c>
       <c r="G101" t="n">
-        <v>-22373.78333545378</v>
+        <v>13845.26336454622</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4290,14 +4358,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>248</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4308,22 +4370,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="C102" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="D102" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="E102" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="F102" t="n">
-        <v>131.0393</v>
+        <v>173.052</v>
       </c>
       <c r="G102" t="n">
-        <v>-22242.74403545378</v>
+        <v>14018.31536454622</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4332,14 +4394,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>248</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4350,22 +4406,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>257.7</v>
+        <v>247</v>
       </c>
       <c r="C103" t="n">
-        <v>258</v>
+        <v>249.2</v>
       </c>
       <c r="D103" t="n">
-        <v>258</v>
+        <v>249.2</v>
       </c>
       <c r="E103" t="n">
-        <v>257.6</v>
+        <v>247</v>
       </c>
       <c r="F103" t="n">
-        <v>10661.0031</v>
+        <v>750</v>
       </c>
       <c r="G103" t="n">
-        <v>-11581.74093545378</v>
+        <v>14768.31536454622</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4374,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>248</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4392,22 +4442,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="C104" t="n">
-        <v>258.1</v>
+        <v>248.2</v>
       </c>
       <c r="D104" t="n">
-        <v>258.1</v>
+        <v>248.2</v>
       </c>
       <c r="E104" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="F104" t="n">
-        <v>4901.8806</v>
+        <v>233</v>
       </c>
       <c r="G104" t="n">
-        <v>-6679.860335453775</v>
+        <v>14535.31536454622</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4416,14 +4466,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>248</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4434,22 +4478,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="C105" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="D105" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="E105" t="n">
-        <v>258</v>
+        <v>248.2</v>
       </c>
       <c r="F105" t="n">
-        <v>853.5382</v>
+        <v>3170.0667</v>
       </c>
       <c r="G105" t="n">
-        <v>-7533.398535453775</v>
+        <v>14535.31536454622</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4458,14 +4502,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>248</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4476,22 +4514,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C106" t="n">
-        <v>259.5</v>
+        <v>246</v>
       </c>
       <c r="D106" t="n">
-        <v>259.5</v>
+        <v>246</v>
       </c>
       <c r="E106" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F106" t="n">
-        <v>2200</v>
+        <v>156.486</v>
       </c>
       <c r="G106" t="n">
-        <v>-5333.398535453775</v>
+        <v>14378.82936454622</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4500,14 +4538,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>248</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4518,22 +4550,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C107" t="n">
-        <v>259.4</v>
+        <v>246</v>
       </c>
       <c r="D107" t="n">
-        <v>259.4</v>
+        <v>246</v>
       </c>
       <c r="E107" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F107" t="n">
-        <v>869</v>
+        <v>195.7275</v>
       </c>
       <c r="G107" t="n">
-        <v>-6202.398535453775</v>
+        <v>14378.82936454622</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4542,14 +4574,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>248</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4560,22 +4586,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>259.4</v>
+        <v>247.6</v>
       </c>
       <c r="C108" t="n">
-        <v>260.2</v>
+        <v>245.3</v>
       </c>
       <c r="D108" t="n">
-        <v>260.2</v>
+        <v>247.6</v>
       </c>
       <c r="E108" t="n">
-        <v>259.4</v>
+        <v>245.3</v>
       </c>
       <c r="F108" t="n">
-        <v>6909.5247</v>
+        <v>46306.1214</v>
       </c>
       <c r="G108" t="n">
-        <v>707.1261645462246</v>
+        <v>-31927.29203545378</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4584,14 +4610,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>248</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4602,72 +4622,64 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>260.2</v>
+        <v>247.6</v>
       </c>
       <c r="C109" t="n">
-        <v>260.2</v>
+        <v>248.6</v>
       </c>
       <c r="D109" t="n">
-        <v>260.2</v>
+        <v>248.6</v>
       </c>
       <c r="E109" t="n">
-        <v>260.2</v>
+        <v>247</v>
       </c>
       <c r="F109" t="n">
-        <v>50</v>
+        <v>811.1944999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>707.1261645462246</v>
+        <v>-31116.09753545378</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>248</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>1.044193548387097</v>
-      </c>
-      <c r="N109" t="n">
-        <v>1.084033613445378</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>260.2</v>
+        <v>246</v>
       </c>
       <c r="C110" t="n">
-        <v>259.7</v>
+        <v>249.5</v>
       </c>
       <c r="D110" t="n">
-        <v>260.2</v>
+        <v>249.5</v>
       </c>
       <c r="E110" t="n">
-        <v>255.1</v>
+        <v>246</v>
       </c>
       <c r="F110" t="n">
-        <v>4177.0531</v>
+        <v>507.1255</v>
       </c>
       <c r="G110" t="n">
-        <v>-3469.926935453776</v>
+        <v>-30608.97203545378</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4682,28 +4694,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>259.6</v>
+        <v>247</v>
       </c>
       <c r="C111" t="n">
-        <v>259.5</v>
+        <v>247</v>
       </c>
       <c r="D111" t="n">
-        <v>259.6</v>
+        <v>247</v>
       </c>
       <c r="E111" t="n">
-        <v>259.5</v>
+        <v>247</v>
       </c>
       <c r="F111" t="n">
-        <v>1920.3168</v>
+        <v>160.9148</v>
       </c>
       <c r="G111" t="n">
-        <v>-5390.243735453776</v>
+        <v>-30769.88683545378</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4718,22 +4730,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="C112" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="D112" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="E112" t="n">
-        <v>257.1</v>
+        <v>247</v>
       </c>
       <c r="F112" t="n">
-        <v>5</v>
+        <v>22.3283</v>
       </c>
       <c r="G112" t="n">
-        <v>-5395.243735453776</v>
+        <v>-30769.88683545378</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4754,22 +4766,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="C113" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="D113" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="E113" t="n">
-        <v>260.7</v>
+        <v>248.8</v>
       </c>
       <c r="F113" t="n">
-        <v>3031.9095</v>
+        <v>1897.3697</v>
       </c>
       <c r="G113" t="n">
-        <v>-2363.334235453776</v>
+        <v>-28872.51713545378</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4790,28 +4802,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>256.3</v>
+        <v>249</v>
       </c>
       <c r="C114" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D114" t="n">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E114" t="n">
-        <v>256.3</v>
+        <v>249</v>
       </c>
       <c r="F114" t="n">
-        <v>209.3419</v>
+        <v>125.5237</v>
       </c>
       <c r="G114" t="n">
-        <v>-2572.676135453776</v>
+        <v>-28746.99343545378</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4826,22 +4838,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>257.4</v>
+        <v>250.1</v>
       </c>
       <c r="C115" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="D115" t="n">
-        <v>260.7</v>
+        <v>250.1</v>
       </c>
       <c r="E115" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="F115" t="n">
-        <v>682.4400000000001</v>
+        <v>68.105</v>
       </c>
       <c r="G115" t="n">
-        <v>-3255.116135453776</v>
+        <v>-28678.88843545378</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4862,22 +4874,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="C116" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="D116" t="n">
-        <v>257.1</v>
+        <v>250.1</v>
       </c>
       <c r="E116" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="F116" t="n">
-        <v>568.5951</v>
+        <v>132.0396</v>
       </c>
       <c r="G116" t="n">
-        <v>-3823.711235453776</v>
+        <v>-28678.88843545378</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4898,22 +4910,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="C117" t="n">
-        <v>255.9</v>
+        <v>250.1</v>
       </c>
       <c r="D117" t="n">
-        <v>257</v>
+        <v>250.1</v>
       </c>
       <c r="E117" t="n">
-        <v>255.9</v>
+        <v>250.1</v>
       </c>
       <c r="F117" t="n">
-        <v>400</v>
+        <v>204.2041</v>
       </c>
       <c r="G117" t="n">
-        <v>-4223.711235453776</v>
+        <v>-28678.88843545378</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4934,22 +4946,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>259.7</v>
+        <v>250.2</v>
       </c>
       <c r="C118" t="n">
-        <v>257.1</v>
+        <v>250.2</v>
       </c>
       <c r="D118" t="n">
-        <v>260</v>
+        <v>250.2</v>
       </c>
       <c r="E118" t="n">
-        <v>257.1</v>
+        <v>250.2</v>
       </c>
       <c r="F118" t="n">
-        <v>734.8074</v>
+        <v>97</v>
       </c>
       <c r="G118" t="n">
-        <v>-3488.903835453776</v>
+        <v>-28581.88843545378</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4970,22 +4982,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>257.1</v>
+        <v>250.2</v>
       </c>
       <c r="C119" t="n">
-        <v>257.1</v>
+        <v>251.1</v>
       </c>
       <c r="D119" t="n">
-        <v>257.1</v>
+        <v>251.1</v>
       </c>
       <c r="E119" t="n">
-        <v>257</v>
+        <v>250.2</v>
       </c>
       <c r="F119" t="n">
-        <v>585.6721</v>
+        <v>155</v>
       </c>
       <c r="G119" t="n">
-        <v>-3488.903835453776</v>
+        <v>-28426.88843545378</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5006,22 +5018,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>256</v>
+        <v>251.1</v>
       </c>
       <c r="C120" t="n">
-        <v>259.7</v>
+        <v>252.9</v>
       </c>
       <c r="D120" t="n">
-        <v>259.7</v>
+        <v>252.9</v>
       </c>
       <c r="E120" t="n">
-        <v>256</v>
+        <v>251.1</v>
       </c>
       <c r="F120" t="n">
-        <v>987.343</v>
+        <v>3700</v>
       </c>
       <c r="G120" t="n">
-        <v>-2501.560835453776</v>
+        <v>-24726.88843545378</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5042,22 +5054,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="C121" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="D121" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="E121" t="n">
-        <v>257.1</v>
+        <v>253</v>
       </c>
       <c r="F121" t="n">
-        <v>5</v>
+        <v>722.7939</v>
       </c>
       <c r="G121" t="n">
-        <v>-2506.560835453776</v>
+        <v>-24004.09453545378</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5078,22 +5090,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="C122" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="D122" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="E122" t="n">
-        <v>260</v>
+        <v>252.1</v>
       </c>
       <c r="F122" t="n">
-        <v>118.4621</v>
+        <v>261.3836</v>
       </c>
       <c r="G122" t="n">
-        <v>-2388.098735453776</v>
+        <v>-24265.47813545378</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5114,22 +5126,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C123" t="n">
-        <v>260.7</v>
+        <v>252</v>
       </c>
       <c r="D123" t="n">
-        <v>260.7</v>
+        <v>252</v>
       </c>
       <c r="E123" t="n">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F123" t="n">
-        <v>141.6855</v>
+        <v>171.0195</v>
       </c>
       <c r="G123" t="n">
-        <v>-2246.413235453776</v>
+        <v>-24436.49763545378</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5150,22 +5162,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="C124" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="D124" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="E124" t="n">
-        <v>260.7</v>
+        <v>252.4</v>
       </c>
       <c r="F124" t="n">
-        <v>1509.4528</v>
+        <v>171</v>
       </c>
       <c r="G124" t="n">
-        <v>-2246.413235453776</v>
+        <v>-24265.49763545378</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5186,22 +5198,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="C125" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="D125" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="E125" t="n">
-        <v>260.7</v>
+        <v>249.2</v>
       </c>
       <c r="F125" t="n">
-        <v>380.114</v>
+        <v>3.9825</v>
       </c>
       <c r="G125" t="n">
-        <v>-2246.413235453776</v>
+        <v>-24269.48013545378</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5222,22 +5234,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>260.7</v>
+        <v>253</v>
       </c>
       <c r="C126" t="n">
-        <v>260.7</v>
+        <v>255.3</v>
       </c>
       <c r="D126" t="n">
-        <v>260.7</v>
+        <v>255.3</v>
       </c>
       <c r="E126" t="n">
-        <v>260.7</v>
+        <v>253</v>
       </c>
       <c r="F126" t="n">
-        <v>2862.7415</v>
+        <v>252.2963</v>
       </c>
       <c r="G126" t="n">
-        <v>-2246.413235453776</v>
+        <v>-24017.18383545378</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5258,28 +5270,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>258.1</v>
+        <v>255.3</v>
       </c>
       <c r="C127" t="n">
-        <v>261.9</v>
+        <v>255.3</v>
       </c>
       <c r="D127" t="n">
-        <v>261.9</v>
+        <v>255.3</v>
       </c>
       <c r="E127" t="n">
-        <v>258.1</v>
+        <v>255.3</v>
       </c>
       <c r="F127" t="n">
-        <v>2099.4563</v>
+        <v>900</v>
       </c>
       <c r="G127" t="n">
-        <v>-146.9569354537757</v>
+        <v>-24017.18383545378</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5294,22 +5306,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>261.9</v>
+        <v>255.4</v>
       </c>
       <c r="C128" t="n">
-        <v>262</v>
+        <v>255.4</v>
       </c>
       <c r="D128" t="n">
-        <v>262</v>
+        <v>255.4</v>
       </c>
       <c r="E128" t="n">
-        <v>261.8</v>
+        <v>255.4</v>
       </c>
       <c r="F128" t="n">
-        <v>9586.762199999999</v>
+        <v>261.3836</v>
       </c>
       <c r="G128" t="n">
-        <v>9439.805264546223</v>
+        <v>-23755.80023545377</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5330,28 +5342,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C129" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D129" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E129" t="n">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F129" t="n">
-        <v>1903.714</v>
+        <v>1382.0169</v>
       </c>
       <c r="G129" t="n">
-        <v>9439.805264546223</v>
+        <v>-22373.78333545378</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5366,28 +5378,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C130" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D130" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E130" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="F130" t="n">
-        <v>4173.1749</v>
+        <v>710.9831</v>
       </c>
       <c r="G130" t="n">
-        <v>9439.805264546223</v>
+        <v>-22373.78333545378</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5402,28 +5414,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="C131" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="D131" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="E131" t="n">
-        <v>262</v>
+        <v>257.7</v>
       </c>
       <c r="F131" t="n">
-        <v>600.9646</v>
+        <v>131.0393</v>
       </c>
       <c r="G131" t="n">
-        <v>9439.805264546223</v>
+        <v>-22242.74403545378</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5438,28 +5450,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>263</v>
+        <v>257.7</v>
       </c>
       <c r="C132" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D132" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E132" t="n">
-        <v>263</v>
+        <v>257.6</v>
       </c>
       <c r="F132" t="n">
-        <v>250</v>
+        <v>10661.0031</v>
       </c>
       <c r="G132" t="n">
-        <v>9689.805264546223</v>
+        <v>-11581.74093545378</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5474,28 +5486,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C133" t="n">
-        <v>262</v>
+        <v>258.1</v>
       </c>
       <c r="D133" t="n">
-        <v>262</v>
+        <v>258.1</v>
       </c>
       <c r="E133" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F133" t="n">
-        <v>12.9675</v>
+        <v>4901.8806</v>
       </c>
       <c r="G133" t="n">
-        <v>9676.837764546222</v>
+        <v>-6679.860335453775</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5510,28 +5522,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C134" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="D134" t="n">
-        <v>262.1</v>
+        <v>258</v>
       </c>
       <c r="E134" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F134" t="n">
-        <v>679.7272</v>
+        <v>853.5382</v>
       </c>
       <c r="G134" t="n">
-        <v>9676.837764546222</v>
+        <v>-7533.398535453775</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5546,28 +5558,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C135" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="D135" t="n">
-        <v>263</v>
+        <v>259.5</v>
       </c>
       <c r="E135" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F135" t="n">
-        <v>305</v>
+        <v>2200</v>
       </c>
       <c r="G135" t="n">
-        <v>9981.837764546222</v>
+        <v>-5333.398535453775</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5582,28 +5594,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C136" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="D136" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="E136" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F136" t="n">
-        <v>1210</v>
+        <v>869</v>
       </c>
       <c r="G136" t="n">
-        <v>9981.837764546222</v>
+        <v>-6202.398535453775</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5618,28 +5630,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="C137" t="n">
-        <v>263.3</v>
+        <v>260.2</v>
       </c>
       <c r="D137" t="n">
-        <v>263.3</v>
+        <v>260.2</v>
       </c>
       <c r="E137" t="n">
-        <v>263</v>
+        <v>259.4</v>
       </c>
       <c r="F137" t="n">
-        <v>1305</v>
+        <v>6909.5247</v>
       </c>
       <c r="G137" t="n">
-        <v>11286.83776454622</v>
+        <v>707.1261645462246</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5654,28 +5666,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>263.3</v>
+        <v>260.2</v>
       </c>
       <c r="C138" t="n">
-        <v>263.5</v>
+        <v>260.2</v>
       </c>
       <c r="D138" t="n">
-        <v>263.5</v>
+        <v>260.2</v>
       </c>
       <c r="E138" t="n">
-        <v>263.3</v>
+        <v>260.2</v>
       </c>
       <c r="F138" t="n">
-        <v>1662</v>
+        <v>50</v>
       </c>
       <c r="G138" t="n">
-        <v>12948.83776454622</v>
+        <v>707.1261645462246</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5685,6 +5697,1050 @@
       </c>
       <c r="N138" t="inlineStr"/>
     </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="C139" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>260.2</v>
+      </c>
+      <c r="E139" t="n">
+        <v>255.1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4177.0531</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-3469.926935453776</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="C140" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>259.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>259.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1920.3168</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-5390.243735453776</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D141" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E141" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-5395.243735453776</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3031.9095</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-2363.334235453776</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>256.3</v>
+      </c>
+      <c r="C143" t="n">
+        <v>258</v>
+      </c>
+      <c r="D143" t="n">
+        <v>258</v>
+      </c>
+      <c r="E143" t="n">
+        <v>256.3</v>
+      </c>
+      <c r="F143" t="n">
+        <v>209.3419</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-2572.676135453776</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>257.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D144" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E144" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>682.4400000000001</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-3255.116135453776</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>257</v>
+      </c>
+      <c r="D145" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E145" t="n">
+        <v>257</v>
+      </c>
+      <c r="F145" t="n">
+        <v>568.5951</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-3823.711235453776</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>257</v>
+      </c>
+      <c r="C146" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>257</v>
+      </c>
+      <c r="E146" t="n">
+        <v>255.9</v>
+      </c>
+      <c r="F146" t="n">
+        <v>400</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-4223.711235453776</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="C147" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D147" t="n">
+        <v>260</v>
+      </c>
+      <c r="E147" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>734.8074</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-3488.903835453776</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D148" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E148" t="n">
+        <v>257</v>
+      </c>
+      <c r="F148" t="n">
+        <v>585.6721</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-3488.903835453776</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>256</v>
+      </c>
+      <c r="C149" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="D149" t="n">
+        <v>259.7</v>
+      </c>
+      <c r="E149" t="n">
+        <v>256</v>
+      </c>
+      <c r="F149" t="n">
+        <v>987.343</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-2501.560835453776</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="D150" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>257.1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-2506.560835453776</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>260</v>
+      </c>
+      <c r="C151" t="n">
+        <v>260</v>
+      </c>
+      <c r="D151" t="n">
+        <v>260</v>
+      </c>
+      <c r="E151" t="n">
+        <v>260</v>
+      </c>
+      <c r="F151" t="n">
+        <v>118.4621</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-2388.098735453776</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>260</v>
+      </c>
+      <c r="C152" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D152" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E152" t="n">
+        <v>260</v>
+      </c>
+      <c r="F152" t="n">
+        <v>141.6855</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C153" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D153" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E153" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1509.4528</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C154" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D154" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E154" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>380.114</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>260.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2862.7415</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-2246.413235453776</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>258.1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2099.4563</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-146.9569354537757</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>261.9</v>
+      </c>
+      <c r="C157" t="n">
+        <v>262</v>
+      </c>
+      <c r="D157" t="n">
+        <v>262</v>
+      </c>
+      <c r="E157" t="n">
+        <v>261.8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9586.762199999999</v>
+      </c>
+      <c r="G157" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>262</v>
+      </c>
+      <c r="C158" t="n">
+        <v>262</v>
+      </c>
+      <c r="D158" t="n">
+        <v>262</v>
+      </c>
+      <c r="E158" t="n">
+        <v>262</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1903.714</v>
+      </c>
+      <c r="G158" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>262</v>
+      </c>
+      <c r="C159" t="n">
+        <v>262</v>
+      </c>
+      <c r="D159" t="n">
+        <v>262</v>
+      </c>
+      <c r="E159" t="n">
+        <v>262</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4173.1749</v>
+      </c>
+      <c r="G159" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>262</v>
+      </c>
+      <c r="C160" t="n">
+        <v>262</v>
+      </c>
+      <c r="D160" t="n">
+        <v>262</v>
+      </c>
+      <c r="E160" t="n">
+        <v>262</v>
+      </c>
+      <c r="F160" t="n">
+        <v>600.9646</v>
+      </c>
+      <c r="G160" t="n">
+        <v>9439.805264546223</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>263</v>
+      </c>
+      <c r="C161" t="n">
+        <v>263</v>
+      </c>
+      <c r="D161" t="n">
+        <v>263</v>
+      </c>
+      <c r="E161" t="n">
+        <v>263</v>
+      </c>
+      <c r="F161" t="n">
+        <v>250</v>
+      </c>
+      <c r="G161" t="n">
+        <v>9689.805264546223</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>262</v>
+      </c>
+      <c r="C162" t="n">
+        <v>262</v>
+      </c>
+      <c r="D162" t="n">
+        <v>262</v>
+      </c>
+      <c r="E162" t="n">
+        <v>262</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12.9675</v>
+      </c>
+      <c r="G162" t="n">
+        <v>9676.837764546222</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>262</v>
+      </c>
+      <c r="C163" t="n">
+        <v>262</v>
+      </c>
+      <c r="D163" t="n">
+        <v>262.1</v>
+      </c>
+      <c r="E163" t="n">
+        <v>262</v>
+      </c>
+      <c r="F163" t="n">
+        <v>679.7272</v>
+      </c>
+      <c r="G163" t="n">
+        <v>9676.837764546222</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>263</v>
+      </c>
+      <c r="C164" t="n">
+        <v>263</v>
+      </c>
+      <c r="D164" t="n">
+        <v>263</v>
+      </c>
+      <c r="E164" t="n">
+        <v>263</v>
+      </c>
+      <c r="F164" t="n">
+        <v>305</v>
+      </c>
+      <c r="G164" t="n">
+        <v>9981.837764546222</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>263</v>
+      </c>
+      <c r="C165" t="n">
+        <v>263</v>
+      </c>
+      <c r="D165" t="n">
+        <v>263</v>
+      </c>
+      <c r="E165" t="n">
+        <v>263</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1210</v>
+      </c>
+      <c r="G165" t="n">
+        <v>9981.837764546222</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>263</v>
+      </c>
+      <c r="C166" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="D166" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="E166" t="n">
+        <v>263</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1305</v>
+      </c>
+      <c r="G166" t="n">
+        <v>11286.83776454622</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="C167" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>263.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>263.3</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1662</v>
+      </c>
+      <c r="G167" t="n">
+        <v>12948.83776454622</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N167"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,22 +517,19 @@
         <v>15633.97556454622</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="J4" t="n">
         <v>239</v>
       </c>
-      <c r="K4" t="n">
-        <v>239</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,24 +554,23 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="J5" t="n">
         <v>239</v>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -610,24 +595,23 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
+        <v>243</v>
+      </c>
+      <c r="J6" t="n">
         <v>239</v>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -652,18 +636,19 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>243</v>
+      </c>
+      <c r="J7" t="n">
+        <v>243</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,16 +675,19 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>243</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -726,16 +714,19 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>243</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -762,16 +753,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -796,18 +784,19 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>240</v>
+      </c>
+      <c r="J11" t="n">
+        <v>240</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -834,16 +823,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>240</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -870,16 +862,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>240</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -906,16 +901,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +934,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +967,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +1000,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1050,16 +1033,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1086,16 +1066,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1122,16 +1099,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1158,16 +1132,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1194,16 +1165,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1228,22 +1196,15 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>242</v>
-      </c>
-      <c r="K23" t="n">
-        <v>242</v>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,110 +1229,99 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J24" t="n">
         <v>242</v>
       </c>
-      <c r="K24" t="n">
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
         <v>242</v>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="C25" t="n">
+        <v>242</v>
+      </c>
+      <c r="D25" t="n">
+        <v>242</v>
+      </c>
+      <c r="E25" t="n">
+        <v>242</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8376.7088</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-5887.355235453781</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+      <c r="I25" t="n">
+        <v>242</v>
+      </c>
+      <c r="J25" t="n">
+        <v>242</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
         <v>242</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>242</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>242</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E26" t="n">
         <v>242</v>
       </c>
-      <c r="F25" t="n">
-        <v>8376.7088</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G26" t="n">
         <v>-5887.355235453781</v>
       </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
         <v>242</v>
       </c>
-      <c r="K25" t="n">
-        <v>242</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>242</v>
-      </c>
-      <c r="C26" t="n">
-        <v>242</v>
-      </c>
-      <c r="D26" t="n">
-        <v>242</v>
-      </c>
-      <c r="E26" t="n">
-        <v>242</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-5887.355235453781</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>242</v>
-      </c>
-      <c r="K26" t="n">
-        <v>242</v>
-      </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1396,110 +1346,99 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="J27" t="n">
         <v>242</v>
       </c>
-      <c r="K27" t="n">
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
         <v>242</v>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="C28" t="n">
+        <v>242</v>
+      </c>
+      <c r="D28" t="n">
+        <v>242</v>
+      </c>
+      <c r="E28" t="n">
+        <v>242</v>
+      </c>
+      <c r="F28" t="n">
+        <v>3277</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-5887.355235453781</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>242</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
         <v>242</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>242</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>242</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>242</v>
       </c>
-      <c r="F28" t="n">
-        <v>3277</v>
-      </c>
-      <c r="G28" t="n">
+      <c r="F29" t="n">
+        <v>10967.0305</v>
+      </c>
+      <c r="G29" t="n">
         <v>-5887.355235453781</v>
       </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+      <c r="I29" t="n">
         <v>242</v>
       </c>
-      <c r="K28" t="n">
+      <c r="J29" t="n">
         <v>242</v>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>242</v>
-      </c>
-      <c r="C29" t="n">
-        <v>242</v>
-      </c>
-      <c r="D29" t="n">
-        <v>242</v>
-      </c>
-      <c r="E29" t="n">
-        <v>242</v>
-      </c>
-      <c r="F29" t="n">
-        <v>10967.0305</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-5887.355235453781</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>242</v>
-      </c>
-      <c r="K29" t="n">
-        <v>242</v>
-      </c>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1524,26 +1463,15 @@
         <v>-14547.35523545378</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>242</v>
-      </c>
-      <c r="K30" t="n">
-        <v>242</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1568,1516 +1496,1330 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>238</v>
-      </c>
-      <c r="K31" t="n">
-        <v>242</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>239</v>
+      </c>
+      <c r="C32" t="n">
+        <v>239</v>
+      </c>
+      <c r="D32" t="n">
+        <v>239</v>
+      </c>
+      <c r="E32" t="n">
+        <v>239</v>
+      </c>
+      <c r="F32" t="n">
+        <v>158.4542</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-12260.31413545378</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>239</v>
+      </c>
+      <c r="C33" t="n">
+        <v>239</v>
+      </c>
+      <c r="D33" t="n">
+        <v>239</v>
+      </c>
+      <c r="E33" t="n">
+        <v>239</v>
+      </c>
+      <c r="F33" t="n">
+        <v>114</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-12260.31413545378</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>239</v>
+      </c>
+      <c r="C34" t="n">
+        <v>240</v>
+      </c>
+      <c r="D34" t="n">
+        <v>240</v>
+      </c>
+      <c r="E34" t="n">
+        <v>239</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2232.6697</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-10027.64443545378</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>240</v>
+      </c>
+      <c r="C35" t="n">
+        <v>240</v>
+      </c>
+      <c r="D35" t="n">
+        <v>240</v>
+      </c>
+      <c r="E35" t="n">
+        <v>240</v>
+      </c>
+      <c r="F35" t="n">
+        <v>6820.9712</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-10027.64443545378</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>240</v>
+      </c>
+      <c r="C36" t="n">
+        <v>240</v>
+      </c>
+      <c r="D36" t="n">
+        <v>240</v>
+      </c>
+      <c r="E36" t="n">
+        <v>240</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3988.1964</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-10027.64443545378</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>240</v>
+      </c>
+      <c r="C37" t="n">
+        <v>240</v>
+      </c>
+      <c r="D37" t="n">
+        <v>240</v>
+      </c>
+      <c r="E37" t="n">
+        <v>240</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2389.0487</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-10027.64443545378</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="C38" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="F38" t="n">
+        <v>98</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-10125.64443545378</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="C39" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="D39" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>300.09</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-9825.55443545378</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="C40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>596.9236</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-9825.55443545378</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+      <c r="I40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="C41" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="E41" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="F41" t="n">
+        <v>96</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-9729.55443545378</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>239</v>
-      </c>
-      <c r="C32" t="n">
-        <v>239</v>
-      </c>
-      <c r="D32" t="n">
-        <v>239</v>
-      </c>
-      <c r="E32" t="n">
-        <v>239</v>
-      </c>
-      <c r="F32" t="n">
-        <v>158.4542</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-12260.31413545378</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>239</v>
-      </c>
-      <c r="K32" t="n">
-        <v>242</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>112</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-9617.55443545378</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>239</v>
-      </c>
-      <c r="C33" t="n">
-        <v>239</v>
-      </c>
-      <c r="D33" t="n">
-        <v>239</v>
-      </c>
-      <c r="E33" t="n">
-        <v>239</v>
-      </c>
-      <c r="F33" t="n">
-        <v>114</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-12260.31413545378</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>239</v>
-      </c>
-      <c r="K33" t="n">
-        <v>242</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="C43" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="E43" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0381</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-9617.55443545378</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>239</v>
-      </c>
-      <c r="C34" t="n">
-        <v>240</v>
-      </c>
-      <c r="D34" t="n">
-        <v>240</v>
-      </c>
-      <c r="E34" t="n">
-        <v>239</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2232.6697</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-10027.64443545378</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>239</v>
-      </c>
-      <c r="K34" t="n">
-        <v>242</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="C44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>247.8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="F44" t="n">
+        <v>236.7571</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-9380.797335453779</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>240</v>
-      </c>
-      <c r="C35" t="n">
-        <v>240</v>
-      </c>
-      <c r="D35" t="n">
-        <v>240</v>
-      </c>
-      <c r="E35" t="n">
-        <v>240</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6820.9712</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-10027.64443545378</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>240</v>
-      </c>
-      <c r="K35" t="n">
-        <v>242</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>245</v>
+      </c>
+      <c r="C45" t="n">
+        <v>245</v>
+      </c>
+      <c r="D45" t="n">
+        <v>245</v>
+      </c>
+      <c r="E45" t="n">
+        <v>245</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1616.2188</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-10997.01613545378</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>240</v>
-      </c>
-      <c r="C36" t="n">
-        <v>240</v>
-      </c>
-      <c r="D36" t="n">
-        <v>240</v>
-      </c>
-      <c r="E36" t="n">
-        <v>240</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3988.1964</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-10027.64443545378</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>240</v>
-      </c>
-      <c r="K36" t="n">
-        <v>242</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>245</v>
+      </c>
+      <c r="C46" t="n">
+        <v>246</v>
+      </c>
+      <c r="D46" t="n">
+        <v>246</v>
+      </c>
+      <c r="E46" t="n">
+        <v>245</v>
+      </c>
+      <c r="F46" t="n">
+        <v>240.028</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-10756.98813545378</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>240</v>
-      </c>
-      <c r="C37" t="n">
-        <v>240</v>
-      </c>
-      <c r="D37" t="n">
-        <v>240</v>
-      </c>
-      <c r="E37" t="n">
-        <v>240</v>
-      </c>
-      <c r="F37" t="n">
-        <v>2389.0487</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-10027.64443545378</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>240</v>
-      </c>
-      <c r="K37" t="n">
-        <v>242</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>247</v>
+      </c>
+      <c r="C47" t="n">
+        <v>247</v>
+      </c>
+      <c r="D47" t="n">
+        <v>247</v>
+      </c>
+      <c r="E47" t="n">
+        <v>247</v>
+      </c>
+      <c r="F47" t="n">
+        <v>143.1142</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-10613.87393545378</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="C38" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="E38" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="F38" t="n">
-        <v>98</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-10125.64443545378</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>240</v>
-      </c>
-      <c r="K38" t="n">
-        <v>242</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>247</v>
+      </c>
+      <c r="C48" t="n">
+        <v>246</v>
+      </c>
+      <c r="D48" t="n">
+        <v>248</v>
+      </c>
+      <c r="E48" t="n">
+        <v>246</v>
+      </c>
+      <c r="F48" t="n">
+        <v>440.2406</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-11054.11453545378</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="E49" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-11067.59453545378</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
         <v>241.8</v>
       </c>
-      <c r="C39" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="D39" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>300.09</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-9825.55443545378</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>242</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="C50" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="E50" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="F50" t="n">
+        <v>7548.5964</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-3518.998135453778</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
         <v>241.8</v>
       </c>
-      <c r="C40" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="D40" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="E40" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="F40" t="n">
-        <v>596.9236</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-9825.55443545378</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K40" t="n">
-        <v>242</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="C51" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>247.9</v>
+      </c>
+      <c r="F51" t="n">
+        <v>232</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-3286.998135453778</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
         <v>241.8</v>
       </c>
-      <c r="C41" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="D41" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="E41" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="F41" t="n">
-        <v>96</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-9729.55443545378</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K41" t="n">
-        <v>242</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="C42" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="D42" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="F42" t="n">
-        <v>112</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-9617.55443545378</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>242</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="C52" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="D52" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="E52" t="n">
+        <v>248.7</v>
+      </c>
+      <c r="F52" t="n">
+        <v>223.1359</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-3063.862235453777</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="C43" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="E43" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1.0381</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-9617.55443545378</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>242</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>249</v>
+      </c>
+      <c r="C53" t="n">
+        <v>247</v>
+      </c>
+      <c r="D53" t="n">
+        <v>249</v>
+      </c>
+      <c r="E53" t="n">
+        <v>247</v>
+      </c>
+      <c r="F53" t="n">
+        <v>558.3744</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-3622.236635453778</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="C44" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="D44" t="n">
-        <v>247.8</v>
-      </c>
-      <c r="E44" t="n">
-        <v>244.4</v>
-      </c>
-      <c r="F44" t="n">
-        <v>236.7571</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-9380.797335453779</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>242</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="C54" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="E54" t="n">
+        <v>247.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>100</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-3522.236635453778</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>245</v>
-      </c>
-      <c r="C45" t="n">
-        <v>245</v>
-      </c>
-      <c r="D45" t="n">
-        <v>245</v>
-      </c>
-      <c r="E45" t="n">
-        <v>245</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1616.2188</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-10997.01613545378</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>242</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>249</v>
+      </c>
+      <c r="C55" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="D55" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>249</v>
+      </c>
+      <c r="F55" t="n">
+        <v>863.2589</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-2658.977735453777</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>245</v>
-      </c>
-      <c r="C46" t="n">
-        <v>246</v>
-      </c>
-      <c r="D46" t="n">
-        <v>246</v>
-      </c>
-      <c r="E46" t="n">
-        <v>245</v>
-      </c>
-      <c r="F46" t="n">
-        <v>240.028</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-10756.98813545378</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>242</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="C56" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="E56" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>690.7098</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-3349.687535453777</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>247</v>
-      </c>
-      <c r="C47" t="n">
-        <v>247</v>
-      </c>
-      <c r="D47" t="n">
-        <v>247</v>
-      </c>
-      <c r="E47" t="n">
-        <v>247</v>
-      </c>
-      <c r="F47" t="n">
-        <v>143.1142</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-10613.87393545378</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>242</v>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>249.7</v>
+      </c>
+      <c r="C57" t="n">
+        <v>250</v>
+      </c>
+      <c r="D57" t="n">
+        <v>250</v>
+      </c>
+      <c r="E57" t="n">
+        <v>249.6</v>
+      </c>
+      <c r="F57" t="n">
+        <v>6848.4052</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3498.717664546223</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>247</v>
-      </c>
-      <c r="C48" t="n">
-        <v>246</v>
-      </c>
-      <c r="D48" t="n">
-        <v>248</v>
-      </c>
-      <c r="E48" t="n">
-        <v>246</v>
-      </c>
-      <c r="F48" t="n">
-        <v>440.2406</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-11054.11453545378</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>242</v>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>250</v>
+      </c>
+      <c r="C58" t="n">
+        <v>250</v>
+      </c>
+      <c r="D58" t="n">
+        <v>250</v>
+      </c>
+      <c r="E58" t="n">
+        <v>250</v>
+      </c>
+      <c r="F58" t="n">
+        <v>123.7182</v>
+      </c>
+      <c r="G58" t="n">
+        <v>3498.717664546223</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="C49" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="D49" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="F49" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-11067.59453545378</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>242</v>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>249.1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1520.1379</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5018.855564546223</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="C50" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="D50" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="E50" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="F50" t="n">
-        <v>7548.5964</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-3518.998135453778</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>242</v>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E60" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1053.3549</v>
+      </c>
+      <c r="G60" t="n">
+        <v>5018.855564546223</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="C51" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="D51" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="E51" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="F51" t="n">
-        <v>232</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-3286.998135453778</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>242</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E61" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1274.2061</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5018.855564546223</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="C52" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="D52" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>248.7</v>
-      </c>
-      <c r="F52" t="n">
-        <v>223.1359</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-3063.862235453777</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>242</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E62" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>487.1461</v>
+      </c>
+      <c r="G62" t="n">
+        <v>5018.855564546223</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>249</v>
-      </c>
-      <c r="C53" t="n">
-        <v>247</v>
-      </c>
-      <c r="D53" t="n">
-        <v>249</v>
-      </c>
-      <c r="E53" t="n">
-        <v>247</v>
-      </c>
-      <c r="F53" t="n">
-        <v>558.3744</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-3622.236635453778</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>242</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>238</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5018.855564546223</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>247.3</v>
-      </c>
-      <c r="C54" t="n">
-        <v>247.3</v>
-      </c>
-      <c r="D54" t="n">
-        <v>247.3</v>
-      </c>
-      <c r="E54" t="n">
-        <v>247.3</v>
-      </c>
-      <c r="F54" t="n">
-        <v>100</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-3522.236635453778</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>242</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="F64" t="n">
+        <v>40.862</v>
+      </c>
+      <c r="G64" t="n">
+        <v>5018.855564546223</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>249</v>
-      </c>
-      <c r="C55" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="D55" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="E55" t="n">
-        <v>249</v>
-      </c>
-      <c r="F55" t="n">
-        <v>863.2589</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-2658.977735453777</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>242</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="C65" t="n">
+        <v>254.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>254.9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>250.8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1180</v>
+      </c>
+      <c r="G65" t="n">
+        <v>6198.855564546223</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="C56" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="D56" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="E56" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="F56" t="n">
-        <v>690.7098</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-3349.687535453777</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>242</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="C66" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="E66" t="n">
+        <v>251.2</v>
+      </c>
+      <c r="F66" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5998.905564546223</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="C57" t="n">
-        <v>250</v>
-      </c>
-      <c r="D57" t="n">
-        <v>250</v>
-      </c>
-      <c r="E57" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6848.4052</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3498.717664546223</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>242</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>250</v>
-      </c>
-      <c r="C58" t="n">
-        <v>250</v>
-      </c>
-      <c r="D58" t="n">
-        <v>250</v>
-      </c>
-      <c r="E58" t="n">
-        <v>250</v>
-      </c>
-      <c r="F58" t="n">
-        <v>123.7182</v>
-      </c>
-      <c r="G58" t="n">
-        <v>3498.717664546223</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>242</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="C59" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>249.1</v>
-      </c>
-      <c r="F59" t="n">
-        <v>1520.1379</v>
-      </c>
-      <c r="G59" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>242</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C60" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D60" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E60" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F60" t="n">
-        <v>1053.3549</v>
-      </c>
-      <c r="G60" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>242</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C61" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D61" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E61" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F61" t="n">
-        <v>1274.2061</v>
-      </c>
-      <c r="G61" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>242</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C62" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D62" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F62" t="n">
-        <v>487.1461</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>242</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D63" t="n">
-        <v>250.9</v>
-      </c>
-      <c r="E63" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F63" t="n">
-        <v>238</v>
-      </c>
-      <c r="G63" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>242</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="C64" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="E64" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="F64" t="n">
-        <v>40.862</v>
-      </c>
-      <c r="G64" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>242</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="C65" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="D65" t="n">
-        <v>254.9</v>
-      </c>
-      <c r="E65" t="n">
-        <v>250.8</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1180</v>
-      </c>
-      <c r="G65" t="n">
-        <v>6198.855564546223</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>242</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="D66" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="E66" t="n">
-        <v>251.2</v>
-      </c>
-      <c r="F66" t="n">
-        <v>199.95</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5998.905564546223</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>242</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3102,24 +2844,21 @@
         <v>6671.218864546223</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>242</v>
-      </c>
-      <c r="L67" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="K67" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1.037183622828784</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3144,24 +2883,15 @@
         <v>13036.09646454622</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>242</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3186,24 +2916,15 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>242</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3228,26 +2949,15 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>242</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1.05698347107438</v>
-      </c>
-      <c r="N70" t="n">
-        <v>1.045798319327731</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3272,18 +2982,15 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,18 +3015,15 @@
         <v>13324.24506454622</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3344,18 +3048,15 @@
         <v>13838.39926454622</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3380,18 +3081,15 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3416,18 +3114,15 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3452,18 +3147,15 @@
         <v>10966.74506454622</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3490,16 +3182,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3524,18 +3213,15 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3560,18 +3246,15 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3596,18 +3279,15 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3632,18 +3312,15 @@
         <v>11330.22026454622</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3668,18 +3345,15 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3704,18 +3378,15 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3740,18 +3411,15 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3778,16 +3446,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3812,18 +3477,15 @@
         <v>-1219.092035453777</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3850,16 +3512,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3884,18 +3543,15 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3922,16 +3578,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,16 +3611,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3994,16 +3644,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4030,16 +3677,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4066,16 +3710,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4102,16 +3743,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4138,16 +3776,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4174,16 +3809,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4210,16 +3842,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4246,16 +3875,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4282,16 +3908,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4318,16 +3941,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4354,16 +3974,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4390,16 +4007,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4426,16 +4040,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4462,16 +4073,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4498,16 +4106,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4534,16 +4139,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4570,16 +4172,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4606,16 +4205,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4642,16 +4238,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4678,16 +4271,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4714,16 +4304,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4750,16 +4337,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4786,16 +4370,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4822,16 +4403,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4858,16 +4436,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4894,16 +4469,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4930,16 +4502,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4966,16 +4535,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5002,16 +4568,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5038,16 +4601,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5074,16 +4634,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5110,16 +4667,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5146,16 +4700,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5182,16 +4733,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5218,16 +4766,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5254,16 +4799,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5290,16 +4832,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5326,16 +4865,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5362,16 +4898,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5398,16 +4931,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5434,16 +4964,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5470,16 +4997,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5504,18 +5028,15 @@
         <v>-6679.860335453775</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5540,18 +5061,15 @@
         <v>-7533.398535453775</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5576,18 +5094,15 @@
         <v>-5333.398535453775</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5612,18 +5127,15 @@
         <v>-6202.398535453775</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5650,16 +5162,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5684,18 +5193,15 @@
         <v>707.1261645462246</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5720,18 +5226,15 @@
         <v>-3469.926935453776</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5756,18 +5259,15 @@
         <v>-5390.243735453776</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5792,18 +5292,15 @@
         <v>-5395.243735453776</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5828,18 +5325,15 @@
         <v>-2363.334235453776</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5864,18 +5358,15 @@
         <v>-2572.676135453776</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5900,18 +5391,15 @@
         <v>-3255.116135453776</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5938,16 +5426,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5972,18 +5457,15 @@
         <v>-4223.711235453776</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6010,16 +5492,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6046,16 +5525,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6082,16 +5558,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6118,16 +5591,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6154,16 +5624,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6188,18 +5655,15 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6224,18 +5688,15 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6260,18 +5721,15 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6296,18 +5754,15 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6332,18 +5787,15 @@
         <v>-146.9569354537757</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6370,16 +5822,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6406,16 +5855,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6440,18 +5886,15 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6478,16 +5921,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6514,16 +5954,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6548,18 +5985,15 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6584,18 +6018,15 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6620,18 +6051,15 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6656,18 +6084,15 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6692,18 +6117,15 @@
         <v>11286.83776454622</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6728,20 +6150,17 @@
         <v>12948.83776454622</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>239</v>
+      </c>
+      <c r="J3" t="n">
+        <v>239</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,7 +521,7 @@
         <v>15633.97556454622</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>239</v>
@@ -525,7 +529,11 @@
       <c r="J4" t="n">
         <v>239</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -554,7 +562,7 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>243.1</v>
@@ -595,56 +603,56 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>243</v>
       </c>
       <c r="J6" t="n">
-        <v>239</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>243</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>243</v>
+      </c>
+      <c r="C7" t="n">
+        <v>243</v>
+      </c>
+      <c r="D7" t="n">
+        <v>243</v>
+      </c>
+      <c r="E7" t="n">
+        <v>243</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15274.3718</v>
+      </c>
+      <c r="G7" t="n">
+        <v>10426.97556454622</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>243</v>
+      </c>
+      <c r="J7" t="n">
+        <v>243</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>243</v>
-      </c>
-      <c r="C7" t="n">
-        <v>243</v>
-      </c>
-      <c r="D7" t="n">
-        <v>243</v>
-      </c>
-      <c r="E7" t="n">
-        <v>243</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15274.3718</v>
-      </c>
-      <c r="G7" t="n">
-        <v>10426.97556454622</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>243</v>
-      </c>
-      <c r="J7" t="n">
-        <v>243</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -712,50 +720,56 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>241</v>
+      </c>
       <c r="J9" t="n">
-        <v>243</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>241</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>240</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>240</v>
+      </c>
+      <c r="E10" t="n">
+        <v>240</v>
+      </c>
+      <c r="F10" t="n">
+        <v>762</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9314.232064546222</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>240</v>
+      </c>
+      <c r="J10" t="n">
+        <v>241</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>240</v>
-      </c>
-      <c r="C10" t="n">
-        <v>240</v>
-      </c>
-      <c r="D10" t="n">
-        <v>240</v>
-      </c>
-      <c r="E10" t="n">
-        <v>240</v>
-      </c>
-      <c r="F10" t="n">
-        <v>762</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9314.232064546222</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -784,15 +798,17 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>240</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
+        <v>241</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -824,14 +840,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>240</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -863,14 +873,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>240</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -1229,14 +1233,10 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>242</v>
-      </c>
-      <c r="J24" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1266,19 +1266,11 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>242</v>
-      </c>
-      <c r="J25" t="n">
-        <v>242</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1310,14 +1302,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>242</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1346,14 +1332,10 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>242</v>
-      </c>
-      <c r="J27" t="n">
-        <v>242</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1386,14 +1368,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>242</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1422,19 +1398,11 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>242</v>
-      </c>
-      <c r="J29" t="n">
-        <v>242</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1793,14 +1761,10 @@
         <v>-9825.55443545378</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>241.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1833,14 +1797,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1872,14 +1830,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1911,14 +1863,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1950,14 +1896,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1989,14 +1929,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2028,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2067,14 +1995,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2106,14 +2028,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2145,14 +2061,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2184,14 +2094,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2223,14 +2127,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2262,14 +2160,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2301,14 +2193,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2340,14 +2226,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2379,14 +2259,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2418,14 +2292,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2457,14 +2325,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2496,14 +2358,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2535,14 +2391,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2574,14 +2424,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2613,14 +2457,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2652,14 +2490,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2691,14 +2523,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2730,14 +2556,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2769,14 +2589,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2808,14 +2622,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2844,19 +2652,13 @@
         <v>6671.218864546223</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
-        <v>1.037183622828784</v>
+        <v>1</v>
       </c>
       <c r="M67" t="inlineStr"/>
     </row>
@@ -2883,7 +2685,7 @@
         <v>13036.09646454622</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2916,7 +2718,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2949,7 +2751,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2982,7 +2784,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3015,7 +2817,7 @@
         <v>13324.24506454622</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3048,7 +2850,7 @@
         <v>13838.39926454622</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3081,7 +2883,7 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3114,7 +2916,7 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3147,7 +2949,7 @@
         <v>10966.74506454622</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3213,7 +3015,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3246,7 +3048,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3279,7 +3081,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3312,7 +3114,7 @@
         <v>11330.22026454622</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3345,7 +3147,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3378,7 +3180,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3411,7 +3213,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3444,7 +3246,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3477,7 +3279,7 @@
         <v>-1219.092035453777</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3510,7 +3312,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3543,7 +3345,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3576,7 +3378,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3609,7 +3411,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3642,7 +3444,7 @@
         <v>13612.72176454622</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3675,7 +3477,7 @@
         <v>13619.91966454622</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3708,7 +3510,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3741,7 +3543,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3774,7 +3576,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3807,7 +3609,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3840,7 +3642,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3873,7 +3675,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3906,7 +3708,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3939,7 +3741,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3972,7 +3774,7 @@
         <v>13845.26336454622</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -4005,7 +3807,7 @@
         <v>14018.31536454622</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4038,7 +3840,7 @@
         <v>14768.31536454622</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4170,7 +3972,7 @@
         <v>14378.82936454622</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4203,7 +4005,7 @@
         <v>-31927.29203545378</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -5028,7 +4830,7 @@
         <v>-6679.860335453775</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5061,7 +4863,7 @@
         <v>-7533.398535453775</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5094,7 +4896,7 @@
         <v>-5333.398535453775</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5127,7 +4929,7 @@
         <v>-6202.398535453775</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5193,7 +4995,7 @@
         <v>707.1261645462246</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5226,7 +5028,7 @@
         <v>-3469.926935453776</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5259,7 +5061,7 @@
         <v>-5390.243735453776</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5292,7 +5094,7 @@
         <v>-5395.243735453776</v>
       </c>
       <c r="H141" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5325,7 +5127,7 @@
         <v>-2363.334235453776</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5358,7 +5160,7 @@
         <v>-2572.676135453776</v>
       </c>
       <c r="H143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5391,7 +5193,7 @@
         <v>-3255.116135453776</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5424,7 +5226,7 @@
         <v>-3823.711235453776</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5457,7 +5259,7 @@
         <v>-4223.711235453776</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5490,7 +5292,7 @@
         <v>-3488.903835453776</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5523,7 +5325,7 @@
         <v>-3488.903835453776</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5556,7 +5358,7 @@
         <v>-2501.560835453776</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5589,7 +5391,7 @@
         <v>-2506.560835453776</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5622,7 +5424,7 @@
         <v>-2388.098735453776</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5655,7 +5457,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5688,7 +5490,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5721,7 +5523,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5754,7 +5556,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5787,7 +5589,7 @@
         <v>-146.9569354537757</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5820,7 +5622,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5853,7 +5655,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5886,7 +5688,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5919,7 +5721,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5952,7 +5754,7 @@
         <v>9689.805264546223</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5985,7 +5787,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6018,7 +5820,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6051,7 +5853,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6084,7 +5886,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6117,7 +5919,7 @@
         <v>11286.83776454622</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6150,7 +5952,7 @@
         <v>12948.83776454622</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6161,6 +5963,6 @@
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>239</v>
-      </c>
-      <c r="J3" t="n">
-        <v>239</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>15633.97556454622</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>239</v>
-      </c>
-      <c r="J4" t="n">
-        <v>239</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>239</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>243</v>
-      </c>
-      <c r="J6" t="n">
-        <v>243</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>243</v>
-      </c>
-      <c r="J7" t="n">
-        <v>243</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,17 +649,11 @@
         <v>10099.23206454622</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>243</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -720,14 +682,10 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>241</v>
-      </c>
-      <c r="J9" t="n">
-        <v>241</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -757,19 +715,11 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>240</v>
-      </c>
-      <c r="J10" t="n">
-        <v>241</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -801,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>241</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -903,7 +847,7 @@
         <v>9019.536764546221</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -936,7 +880,7 @@
         <v>9019.66676454622</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -969,7 +913,7 @@
         <v>9086.66676454622</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1002,7 +946,7 @@
         <v>10660.45316454622</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1035,7 +979,7 @@
         <v>10421.45316454622</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1068,7 +1012,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1101,7 +1045,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1134,7 +1078,7 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1167,7 +1111,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1200,7 +1144,7 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1530,10 +1474,14 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>239</v>
+      </c>
+      <c r="J33" t="n">
+        <v>239</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1563,11 +1511,19 @@
         <v>-10027.64443545378</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>239</v>
+      </c>
+      <c r="J34" t="n">
+        <v>239</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1596,11 +1552,19 @@
         <v>-10027.64443545378</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>240</v>
+      </c>
+      <c r="J35" t="n">
+        <v>239</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1632,8 +1596,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>239</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1662,11 +1632,19 @@
         <v>-10027.64443545378</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>240</v>
+      </c>
+      <c r="J37" t="n">
+        <v>239</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1673,19 @@
         <v>-10125.64443545378</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>240</v>
+      </c>
+      <c r="J38" t="n">
+        <v>239</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1728,11 +1714,19 @@
         <v>-9825.55443545378</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>239.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>239</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1761,11 +1755,19 @@
         <v>-9825.55443545378</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>239</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1794,11 +1796,19 @@
         <v>-9729.55443545378</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>241.8</v>
+      </c>
+      <c r="J41" t="n">
+        <v>239</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1830,8 +1840,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>239</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1863,8 +1879,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>239</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1896,8 +1918,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>239</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1929,8 +1957,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>239</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1962,8 +1996,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>239</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1995,8 +2035,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>239</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2028,8 +2074,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>239</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2061,8 +2113,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>239</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2094,8 +2152,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>239</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2124,13 +2188,19 @@
         <v>-3286.998135453778</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>239</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>1.03223849372385</v>
       </c>
       <c r="M51" t="inlineStr"/>
     </row>
@@ -2157,7 +2227,7 @@
         <v>-3063.862235453777</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2190,7 +2260,7 @@
         <v>-3622.236635453778</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2256,7 +2326,7 @@
         <v>-2658.977735453777</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2289,7 +2359,7 @@
         <v>-3349.687535453777</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2322,7 +2392,7 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2355,7 +2425,7 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2388,7 +2458,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2421,7 +2491,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2454,7 +2524,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2487,7 +2557,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2520,7 +2590,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2553,7 +2623,7 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2586,7 +2656,7 @@
         <v>6198.855564546223</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2619,7 +2689,7 @@
         <v>5998.905564546223</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2652,7 +2722,7 @@
         <v>6671.218864546223</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2685,7 +2755,7 @@
         <v>13036.09646454622</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2718,7 +2788,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2751,7 +2821,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2784,7 +2854,7 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2817,7 +2887,7 @@
         <v>13324.24506454622</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2850,7 +2920,7 @@
         <v>13838.39926454622</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2883,7 +2953,7 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2916,7 +2986,7 @@
         <v>13713.32316454622</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2949,7 +3019,7 @@
         <v>10966.74506454622</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2982,7 +3052,7 @@
         <v>11247.53376454622</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3015,7 +3085,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3048,7 +3118,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3081,7 +3151,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3114,7 +3184,7 @@
         <v>11330.22026454622</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3147,7 +3217,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3180,7 +3250,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3213,7 +3283,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3246,7 +3316,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3279,7 +3349,7 @@
         <v>-1219.092035453777</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3708,7 +3778,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3741,7 +3811,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3774,7 +3844,7 @@
         <v>13845.26336454622</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3807,7 +3877,7 @@
         <v>14018.31536454622</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3840,7 +3910,7 @@
         <v>14768.31536454622</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3972,7 +4042,7 @@
         <v>14378.82936454622</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4005,7 +4075,7 @@
         <v>-31927.29203545378</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4104,10 +4174,14 @@
         <v>-30769.88683545378</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="J111" t="n">
+        <v>249.5</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4140,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4173,8 +4253,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>249.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -5193,7 +5279,7 @@
         <v>-3255.116135453776</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5226,7 +5312,7 @@
         <v>-3823.711235453776</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5259,7 +5345,7 @@
         <v>-4223.711235453776</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5292,7 +5378,7 @@
         <v>-3488.903835453776</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5325,7 +5411,7 @@
         <v>-3488.903835453776</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5358,7 +5444,7 @@
         <v>-2501.560835453776</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5391,7 +5477,7 @@
         <v>-2506.560835453776</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5424,7 +5510,7 @@
         <v>-2388.098735453776</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5457,7 +5543,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5490,7 +5576,7 @@
         <v>-2246.413235453776</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5589,7 +5675,7 @@
         <v>-146.9569354537757</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5622,7 +5708,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5655,7 +5741,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5688,7 +5774,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5721,7 +5807,7 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5754,7 +5840,7 @@
         <v>9689.805264546223</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5787,7 +5873,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5820,7 +5906,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5853,7 +5939,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5886,7 +5972,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5919,7 +6005,7 @@
         <v>11286.83776454622</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5952,7 +6038,7 @@
         <v>12948.83776454622</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5963,6 +6049,6 @@
       <c r="M167" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -451,7 +451,7 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>15507.07036454622</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>239</v>
+      </c>
+      <c r="J3" t="n">
+        <v>239</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>15633.97556454622</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>239</v>
+      </c>
+      <c r="J4" t="n">
+        <v>239</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>239</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,10 +603,14 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>243</v>
+      </c>
+      <c r="J6" t="n">
+        <v>243</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -616,11 +640,19 @@
         <v>10426.97556454622</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>243</v>
+      </c>
+      <c r="J7" t="n">
+        <v>243</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +681,19 @@
         <v>10099.23206454622</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>243</v>
+      </c>
+      <c r="J8" t="n">
+        <v>243</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,10 +722,14 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>241</v>
+      </c>
+      <c r="J9" t="n">
+        <v>241</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
@@ -715,11 +759,19 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>240</v>
+      </c>
+      <c r="J10" t="n">
+        <v>241</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +800,19 @@
         <v>9314.232064546222</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>240</v>
+      </c>
+      <c r="J11" t="n">
+        <v>241</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,10 +841,14 @@
         <v>9757.682464546222</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>240</v>
+      </c>
+      <c r="J12" t="n">
+        <v>240</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -814,11 +878,19 @@
         <v>9851.682464546222</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>244</v>
+      </c>
+      <c r="J13" t="n">
+        <v>240</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +919,17 @@
         <v>9019.536764546221</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>240</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -880,7 +958,7 @@
         <v>9019.66676454622</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +991,7 @@
         <v>9086.66676454622</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,11 +1024,17 @@
         <v>10660.45316454622</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>247</v>
+      </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -979,11 +1063,15 @@
         <v>10421.45316454622</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1100,17 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>245.4</v>
+      </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1139,17 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>244.4</v>
+      </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1178,15 @@
         <v>10351.55816454622</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1215,15 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1252,15 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1289,17 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>242</v>
+      </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1328,17 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>242</v>
+      </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1243,11 +1367,17 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>242</v>
+      </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1276,11 +1406,17 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>242</v>
+      </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1445,17 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>242</v>
+      </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,11 +1484,17 @@
         <v>-5887.355235453781</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>242</v>
+      </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1523,17 @@
         <v>-14547.35523545378</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>242</v>
+      </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1562,17 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>238</v>
+      </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1601,17 @@
         <v>-12260.31413545378</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>239</v>
+      </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1479,10 +1645,12 @@
       <c r="I33" t="n">
         <v>239</v>
       </c>
-      <c r="J33" t="n">
-        <v>239</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1516,12 +1684,10 @@
       <c r="I34" t="n">
         <v>239</v>
       </c>
-      <c r="J34" t="n">
-        <v>239</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -1557,9 +1723,7 @@
       <c r="I35" t="n">
         <v>240</v>
       </c>
-      <c r="J35" t="n">
-        <v>239</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1593,12 +1757,12 @@
         <v>-10027.64443545378</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>240</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1637,9 +1801,7 @@
       <c r="I37" t="n">
         <v>240</v>
       </c>
-      <c r="J37" t="n">
-        <v>239</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1678,9 +1840,7 @@
       <c r="I38" t="n">
         <v>240</v>
       </c>
-      <c r="J38" t="n">
-        <v>239</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1719,9 +1879,7 @@
       <c r="I39" t="n">
         <v>239.3</v>
       </c>
-      <c r="J39" t="n">
-        <v>239</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1760,9 +1918,7 @@
       <c r="I40" t="n">
         <v>241.8</v>
       </c>
-      <c r="J40" t="n">
-        <v>239</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1801,9 +1957,7 @@
       <c r="I41" t="n">
         <v>241.8</v>
       </c>
-      <c r="J41" t="n">
-        <v>239</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1837,12 +1991,12 @@
         <v>-9617.55443545378</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>243.1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1879,9 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>239</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1918,9 +2070,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>239</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1957,9 +2107,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>239</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1996,9 +2144,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>239</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2032,12 +2178,12 @@
         <v>-10613.87393545378</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>246</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2071,12 +2217,12 @@
         <v>-11054.11453545378</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>247</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2110,12 +2256,12 @@
         <v>-11067.59453545378</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>246</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2149,12 +2295,12 @@
         <v>-3518.998135453778</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>245.3</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2188,19 +2334,19 @@
         <v>-3286.998135453778</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>239</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>245.4</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.03223849372385</v>
+        <v>1</v>
       </c>
       <c r="M51" t="inlineStr"/>
     </row>
@@ -2227,11 +2373,17 @@
         <v>-3063.862235453777</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>247.9</v>
+      </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2260,11 +2412,15 @@
         <v>-3622.236635453778</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2293,11 +2449,17 @@
         <v>-3522.236635453778</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>247</v>
+      </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2326,11 +2488,17 @@
         <v>-2658.977735453777</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>247.3</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2359,11 +2527,17 @@
         <v>-3349.687535453777</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>249.7</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2392,11 +2566,17 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>249.6</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2425,11 +2605,17 @@
         <v>3498.717664546223</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>250</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2458,11 +2644,15 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2491,11 +2681,15 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2524,11 +2718,17 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>250.1</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2557,11 +2757,17 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>250.1</v>
+      </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2796,17 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>250.1</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2623,11 +2835,17 @@
         <v>5018.855564546223</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>250.1</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2656,11 +2874,17 @@
         <v>6198.855564546223</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>250.1</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2689,11 +2913,15 @@
         <v>5998.905564546223</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2722,11 +2950,15 @@
         <v>6671.218864546223</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2755,11 +2987,15 @@
         <v>13036.09646454622</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2788,11 +3024,15 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2821,11 +3061,15 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2854,11 +3098,15 @@
         <v>13182.63466454622</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2887,11 +3135,15 @@
         <v>13324.24506454622</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2924,10 +3176,12 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
@@ -3052,7 +3306,7 @@
         <v>11247.53376454622</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3085,7 +3339,7 @@
         <v>11467.52016454622</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3250,7 +3504,7 @@
         <v>10998.10286454622</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3382,7 +3636,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3415,7 +3669,7 @@
         <v>14302.41506454622</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3448,7 +3702,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3481,7 +3735,7 @@
         <v>14068.92346454622</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3514,7 +3768,7 @@
         <v>13612.72176454622</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3547,7 +3801,7 @@
         <v>13619.91966454622</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3580,7 +3834,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3613,7 +3867,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3646,7 +3900,7 @@
         <v>14119.91966454622</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3679,7 +3933,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3712,7 +3966,7 @@
         <v>13945.95596454622</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3745,7 +3999,7 @@
         <v>13861.95596454622</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -4174,14 +4428,10 @@
         <v>-30769.88683545378</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="J111" t="n">
-        <v>249.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4214,14 +4464,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4253,14 +4497,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>249.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4322,10 +4560,14 @@
         <v>-28678.88843545378</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>249</v>
+      </c>
+      <c r="J115" t="n">
+        <v>249</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4358,8 +4600,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>249</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4388,11 +4636,19 @@
         <v>-28678.88843545378</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>249</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4421,10 +4677,14 @@
         <v>-28581.88843545378</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>250.1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
@@ -4454,11 +4714,19 @@
         <v>-28426.88843545378</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>250.2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4487,11 +4755,19 @@
         <v>-24726.88843545378</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>251.1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4520,10 +4796,14 @@
         <v>-24004.09453545378</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="J121" t="n">
+        <v>252.9</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
@@ -4553,11 +4833,19 @@
         <v>-24265.47813545378</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>253</v>
+      </c>
+      <c r="J122" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4586,11 +4874,19 @@
         <v>-24436.49763545378</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>252.1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>252.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4619,10 +4915,14 @@
         <v>-24265.49763545378</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>252</v>
+      </c>
+      <c r="J124" t="n">
+        <v>252</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
@@ -4652,11 +4952,19 @@
         <v>-24269.48013545378</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>252.4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>252</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4685,11 +4993,19 @@
         <v>-24017.18383545378</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>252</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4718,10 +5034,14 @@
         <v>-24017.18383545378</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>255.3</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
@@ -4754,8 +5074,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4784,11 +5110,19 @@
         <v>-22373.78333545378</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>255.4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4817,11 +5151,19 @@
         <v>-22373.78333545378</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>256</v>
+      </c>
+      <c r="J130" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4853,8 +5195,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4886,8 +5234,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4919,8 +5273,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4952,8 +5312,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4985,8 +5351,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5018,8 +5390,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5051,8 +5429,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5084,8 +5468,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5117,8 +5507,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5150,8 +5546,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5183,8 +5585,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5216,8 +5624,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5249,8 +5663,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5282,8 +5702,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5315,8 +5741,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5348,8 +5780,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5381,8 +5819,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5414,8 +5858,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5447,8 +5897,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5480,8 +5936,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5513,8 +5975,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5546,8 +6014,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5579,8 +6053,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5612,8 +6092,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5645,8 +6131,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5678,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5711,8 +6209,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5744,8 +6248,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5777,8 +6287,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5807,13 +6323,19 @@
         <v>9439.805264546223</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>255.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>1.021243634939287</v>
       </c>
       <c r="M160" t="inlineStr"/>
     </row>
@@ -5840,7 +6362,7 @@
         <v>9689.805264546223</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5873,7 +6395,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5906,7 +6428,7 @@
         <v>9676.837764546222</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5939,7 +6461,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5972,7 +6494,7 @@
         <v>9981.837764546222</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6005,7 +6527,7 @@
         <v>11286.83776454622</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6038,7 +6560,7 @@
         <v>12948.83776454622</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>

--- a/BackTest/2020-01-16 BackTest KNC.xlsx
+++ b/BackTest/2020-01-16 BackTest KNC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:L167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1654.9172</v>
       </c>
       <c r="G2" t="n">
-        <v>15507.07036454622</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,15 @@
         <v>1222.2847</v>
       </c>
       <c r="G3" t="n">
-        <v>15507.07036454622</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>239</v>
-      </c>
-      <c r="J3" t="n">
-        <v>239</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +503,19 @@
         <v>126.9052</v>
       </c>
       <c r="G4" t="n">
-        <v>15633.97556454622</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I4" t="n">
         <v>239</v>
       </c>
-      <c r="J4" t="n">
-        <v>239</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +537,23 @@
         <v>5207</v>
       </c>
       <c r="G5" t="n">
-        <v>10426.97556454622</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>243.1</v>
       </c>
       <c r="I5" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="J5" t="n">
         <v>239</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,22 +575,21 @@
         <v>341.1708</v>
       </c>
       <c r="G6" t="n">
-        <v>10426.97556454622</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>243</v>
-      </c>
-      <c r="J6" t="n">
-        <v>243</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>239</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,26 +611,15 @@
         <v>15274.3718</v>
       </c>
       <c r="G7" t="n">
-        <v>10426.97556454622</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>243</v>
-      </c>
-      <c r="J7" t="n">
-        <v>243</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -678,26 +641,15 @@
         <v>327.7435</v>
       </c>
       <c r="G8" t="n">
-        <v>10099.23206454622</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>243</v>
-      </c>
-      <c r="J8" t="n">
-        <v>243</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,22 +671,15 @@
         <v>785</v>
       </c>
       <c r="G9" t="n">
-        <v>9314.232064546222</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>241</v>
-      </c>
-      <c r="J9" t="n">
-        <v>241</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -756,26 +701,19 @@
         <v>762</v>
       </c>
       <c r="G10" t="n">
-        <v>9314.232064546222</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I10" t="n">
         <v>240</v>
       </c>
-      <c r="J10" t="n">
-        <v>241</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -797,26 +735,21 @@
         <v>1609.7736</v>
       </c>
       <c r="G11" t="n">
-        <v>9314.232064546222</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>240</v>
       </c>
-      <c r="J11" t="n">
-        <v>241</v>
-      </c>
-      <c r="K11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -838,22 +771,21 @@
         <v>443.4504</v>
       </c>
       <c r="G12" t="n">
-        <v>9757.682464546222</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>240</v>
       </c>
-      <c r="J12" t="n">
-        <v>240</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -875,26 +807,15 @@
         <v>94</v>
       </c>
       <c r="G13" t="n">
-        <v>9851.682464546222</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>244</v>
-      </c>
-      <c r="J13" t="n">
-        <v>240</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -916,24 +837,15 @@
         <v>832.1457</v>
       </c>
       <c r="G14" t="n">
-        <v>9019.536764546221</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>240</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -955,18 +867,15 @@
         <v>0.13</v>
       </c>
       <c r="G15" t="n">
-        <v>9019.66676454622</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -988,18 +897,15 @@
         <v>67</v>
       </c>
       <c r="G16" t="n">
-        <v>9086.66676454622</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1021,24 +927,15 @@
         <v>1573.7864</v>
       </c>
       <c r="G17" t="n">
-        <v>10660.45316454622</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>247</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1060,22 +957,15 @@
         <v>239</v>
       </c>
       <c r="G18" t="n">
-        <v>10421.45316454622</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1097,24 +987,15 @@
         <v>69.895</v>
       </c>
       <c r="G19" t="n">
-        <v>10351.55816454622</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>245.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1136,24 +1017,19 @@
         <v>4138.6755</v>
       </c>
       <c r="G20" t="n">
-        <v>10351.55816454622</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>244.4</v>
       </c>
       <c r="I20" t="n">
         <v>244.4</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1175,22 +1051,23 @@
         <v>820.8366</v>
       </c>
       <c r="G21" t="n">
-        <v>10351.55816454622</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>244.4</v>
+      </c>
+      <c r="I21" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1212,22 +1089,23 @@
         <v>16238.9134</v>
       </c>
       <c r="G22" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>244.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1249,22 +1127,19 @@
         <v>16166.9999</v>
       </c>
       <c r="G23" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="I23" t="n">
+        <v>242</v>
+      </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1286,24 +1161,23 @@
         <v>1159.008</v>
       </c>
       <c r="G24" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I24" t="n">
         <v>242</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1325,24 +1199,23 @@
         <v>8376.7088</v>
       </c>
       <c r="G25" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I25" t="n">
         <v>242</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1364,24 +1237,19 @@
         <v>1000</v>
       </c>
       <c r="G26" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I26" t="n">
         <v>242</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1403,24 +1271,23 @@
         <v>250</v>
       </c>
       <c r="G27" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I27" t="n">
         <v>242</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1442,24 +1309,23 @@
         <v>3277</v>
       </c>
       <c r="G28" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I28" t="n">
         <v>242</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1481,24 +1347,19 @@
         <v>10967.0305</v>
       </c>
       <c r="G29" t="n">
-        <v>-5887.355235453781</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I29" t="n">
         <v>242</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,24 +1381,23 @@
         <v>8660</v>
       </c>
       <c r="G30" t="n">
-        <v>-14547.35523545378</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>242</v>
       </c>
       <c r="I30" t="n">
         <v>242</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1559,24 +1419,23 @@
         <v>2287.0411</v>
       </c>
       <c r="G31" t="n">
-        <v>-12260.31413545378</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="I31" t="n">
-        <v>238</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1598,24 +1457,23 @@
         <v>158.4542</v>
       </c>
       <c r="G32" t="n">
-        <v>-12260.31413545378</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I32" t="n">
-        <v>239</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1637,24 +1495,23 @@
         <v>114</v>
       </c>
       <c r="G33" t="n">
-        <v>-12260.31413545378</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I33" t="n">
-        <v>239</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1676,24 +1533,23 @@
         <v>2232.6697</v>
       </c>
       <c r="G34" t="n">
-        <v>-10027.64443545378</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I34" t="n">
-        <v>239</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1715,24 +1571,23 @@
         <v>6820.9712</v>
       </c>
       <c r="G35" t="n">
-        <v>-10027.64443545378</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I35" t="n">
-        <v>240</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1754,24 +1609,23 @@
         <v>3988.1964</v>
       </c>
       <c r="G36" t="n">
-        <v>-10027.64443545378</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I36" t="n">
-        <v>240</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1793,24 +1647,23 @@
         <v>2389.0487</v>
       </c>
       <c r="G37" t="n">
-        <v>-10027.64443545378</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I37" t="n">
-        <v>240</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1832,24 +1685,23 @@
         <v>98</v>
       </c>
       <c r="G38" t="n">
-        <v>-10125.64443545378</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="I38" t="n">
-        <v>240</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1871,24 +1723,23 @@
         <v>300.09</v>
       </c>
       <c r="G39" t="n">
-        <v>-9825.55443545378</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>239.3</v>
       </c>
       <c r="I39" t="n">
-        <v>239.3</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1910,24 +1761,21 @@
         <v>596.9236</v>
       </c>
       <c r="G40" t="n">
-        <v>-9825.55443545378</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1949,24 +1797,21 @@
         <v>96</v>
       </c>
       <c r="G41" t="n">
-        <v>-9729.55443545378</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
-        <v>241.8</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1988,24 +1833,21 @@
         <v>112</v>
       </c>
       <c r="G42" t="n">
-        <v>-9617.55443545378</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
-        <v>243.1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2027,22 +1869,21 @@
         <v>1.0381</v>
       </c>
       <c r="G43" t="n">
-        <v>-9617.55443545378</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>242</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2064,22 +1905,21 @@
         <v>236.7571</v>
       </c>
       <c r="G44" t="n">
-        <v>-9380.797335453779</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>242</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2101,22 +1941,21 @@
         <v>1616.2188</v>
       </c>
       <c r="G45" t="n">
-        <v>-10997.01613545378</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>242</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2138,22 +1977,21 @@
         <v>240.028</v>
       </c>
       <c r="G46" t="n">
-        <v>-10756.98813545378</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>242</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2175,24 +2013,21 @@
         <v>143.1142</v>
       </c>
       <c r="G47" t="n">
-        <v>-10613.87393545378</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
-        <v>246</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2214,24 +2049,21 @@
         <v>440.2406</v>
       </c>
       <c r="G48" t="n">
-        <v>-11054.11453545378</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
-        <v>247</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2253,24 +2085,21 @@
         <v>13.48</v>
       </c>
       <c r="G49" t="n">
-        <v>-11067.59453545378</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
-        <v>246</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2292,24 +2121,21 @@
         <v>7548.5964</v>
       </c>
       <c r="G50" t="n">
-        <v>-3518.998135453778</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>245.3</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2331,24 +2157,21 @@
         <v>232</v>
       </c>
       <c r="G51" t="n">
-        <v>-3286.998135453778</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
-        <v>245.4</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2370,24 +2193,21 @@
         <v>223.1359</v>
       </c>
       <c r="G52" t="n">
-        <v>-3063.862235453777</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>247.9</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2409,22 +2229,21 @@
         <v>558.3744</v>
       </c>
       <c r="G53" t="n">
-        <v>-3622.236635453778</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>242</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2446,24 +2265,21 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>-3522.236635453778</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
-        <v>247</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2485,24 +2301,21 @@
         <v>863.2589</v>
       </c>
       <c r="G55" t="n">
-        <v>-2658.977735453777</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
-        <v>247.3</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2524,24 +2337,21 @@
         <v>690.7098</v>
       </c>
       <c r="G56" t="n">
-        <v>-3349.687535453777</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
-        <v>249.7</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2563,24 +2373,21 @@
         <v>6848.4052</v>
       </c>
       <c r="G57" t="n">
-        <v>3498.717664546223</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
-        <v>249.6</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2602,24 +2409,21 @@
         <v>123.7182</v>
       </c>
       <c r="G58" t="n">
-        <v>3498.717664546223</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
-        <v>250</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2641,22 +2445,21 @@
         <v>1520.1379</v>
       </c>
       <c r="G59" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>242</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2678,22 +2481,21 @@
         <v>1053.3549</v>
       </c>
       <c r="G60" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>242</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2715,24 +2517,21 @@
         <v>1274.2061</v>
       </c>
       <c r="G61" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2754,24 +2553,21 @@
         <v>487.1461</v>
       </c>
       <c r="G62" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2793,24 +2589,21 @@
         <v>238</v>
       </c>
       <c r="G63" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2832,24 +2625,21 @@
         <v>40.862</v>
       </c>
       <c r="G64" t="n">
-        <v>5018.855564546223</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2871,24 +2661,21 @@
         <v>1180</v>
       </c>
       <c r="G65" t="n">
-        <v>6198.855564546223</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2910,22 +2697,21 @@
         <v>199.95</v>
       </c>
       <c r="G66" t="n">
-        <v>5998.905564546223</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>242</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2947,22 +2733,21 @@
         <v>672.3133</v>
       </c>
       <c r="G67" t="n">
-        <v>6671.218864546223</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="n">
+        <v>242</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2984,22 +2769,21 @@
         <v>6364.8776</v>
       </c>
       <c r="G68" t="n">
-        <v>13036.09646454622</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>242</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3021,22 +2805,21 @@
         <v>146.5382</v>
       </c>
       <c r="G69" t="n">
-        <v>13182.63466454622</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>242</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3058,22 +2841,21 @@
         <v>175.3785</v>
       </c>
       <c r="G70" t="n">
-        <v>13182.63466454622</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>242</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3095,22 +2877,21 @@
         <v>180.0828</v>
       </c>
       <c r="G71" t="n">
-        <v>13182.63466454622</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>242</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3132,22 +2913,21 @@
         <v>141.6104</v>
       </c>
       <c r="G72" t="n">
-        <v>13324.24506454622</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>242</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3169,20 +2949,21 @@
         <v>514.1541999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>13838.39926454622</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>242</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
       </c>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3204,18 +2985,21 @@
         <v>125.0761</v>
       </c>
       <c r="G74" t="n">
-        <v>13713.32316454622</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>242</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3237,18 +3021,21 @@
         <v>750</v>
       </c>
       <c r="G75" t="n">
-        <v>13713.32316454622</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>242</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3270,18 +3057,21 @@
         <v>2746.5781</v>
       </c>
       <c r="G76" t="n">
-        <v>10966.74506454622</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>242</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3303,18 +3093,21 @@
         <v>280.7887</v>
       </c>
       <c r="G77" t="n">
-        <v>11247.53376454622</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>242</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3336,18 +3129,21 @@
         <v>219.9864</v>
       </c>
       <c r="G78" t="n">
-        <v>11467.52016454622</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>242</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3369,18 +3165,21 @@
         <v>663.2456</v>
       </c>
       <c r="G79" t="n">
-        <v>11467.52016454622</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>242</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3402,18 +3201,21 @@
         <v>129</v>
       </c>
       <c r="G80" t="n">
-        <v>11467.52016454622</v>
-      </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>242</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3435,18 +3237,21 @@
         <v>137.2999</v>
       </c>
       <c r="G81" t="n">
-        <v>11330.22026454622</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>242</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3468,18 +3273,21 @@
         <v>332.1174</v>
       </c>
       <c r="G82" t="n">
-        <v>10998.10286454622</v>
-      </c>
-      <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>242</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3501,18 +3309,21 @@
         <v>277.4551</v>
       </c>
       <c r="G83" t="n">
-        <v>10998.10286454622</v>
-      </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>242</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3534,18 +3345,21 @@
         <v>78</v>
       </c>
       <c r="G84" t="n">
-        <v>10998.10286454622</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>242</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3567,18 +3381,21 @@
         <v>19.4854</v>
       </c>
       <c r="G85" t="n">
-        <v>10998.10286454622</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>242</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3600,18 +3417,21 @@
         <v>12217.1949</v>
       </c>
       <c r="G86" t="n">
-        <v>-1219.092035453777</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>242</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3633,18 +3453,21 @@
         <v>15521.5071</v>
       </c>
       <c r="G87" t="n">
-        <v>14302.41506454622</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>242</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3666,18 +3489,21 @@
         <v>3250</v>
       </c>
       <c r="G88" t="n">
-        <v>14302.41506454622</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>242</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3699,18 +3525,21 @@
         <v>233.4916</v>
       </c>
       <c r="G89" t="n">
-        <v>14068.92346454622</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>242</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3732,18 +3561,21 @@
         <v>270</v>
       </c>
       <c r="G90" t="n">
-        <v>14068.92346454622</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>242</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3765,18 +3597,21 @@
         <v>456.2017</v>
       </c>
       <c r="G91" t="n">
-        <v>13612.72176454622</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>242</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3798,18 +3633,21 @@
         <v>7.1979</v>
       </c>
       <c r="G92" t="n">
-        <v>13619.91966454622</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>242</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3831,18 +3669,21 @@
         <v>500</v>
       </c>
       <c r="G93" t="n">
-        <v>14119.91966454622</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>242</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3864,18 +3705,21 @@
         <v>1250</v>
       </c>
       <c r="G94" t="n">
-        <v>14119.91966454622</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>242</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3897,18 +3741,21 @@
         <v>555</v>
       </c>
       <c r="G95" t="n">
-        <v>14119.91966454622</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>242</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3930,18 +3777,21 @@
         <v>173.9637</v>
       </c>
       <c r="G96" t="n">
-        <v>13945.95596454622</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>242</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3963,18 +3813,21 @@
         <v>500</v>
       </c>
       <c r="G97" t="n">
-        <v>13945.95596454622</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>242</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3996,18 +3849,21 @@
         <v>84</v>
       </c>
       <c r="G98" t="n">
-        <v>13861.95596454622</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>242</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4029,18 +3885,23 @@
         <v>56.5706</v>
       </c>
       <c r="G99" t="n">
-        <v>13861.95596454622</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>247</v>
+      </c>
+      <c r="I99" t="n">
+        <v>242</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4062,18 +3923,23 @@
         <v>21.1197</v>
       </c>
       <c r="G100" t="n">
-        <v>13861.95596454622</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>247</v>
+      </c>
+      <c r="I100" t="n">
+        <v>242</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4095,18 +3961,21 @@
         <v>16.6926</v>
       </c>
       <c r="G101" t="n">
-        <v>13845.26336454622</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>242</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4128,18 +3997,23 @@
         <v>173.052</v>
       </c>
       <c r="G102" t="n">
-        <v>14018.31536454622</v>
+        <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>245</v>
+      </c>
+      <c r="I102" t="n">
+        <v>242</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4161,18 +4035,23 @@
         <v>750</v>
       </c>
       <c r="G103" t="n">
-        <v>14768.31536454622</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>247</v>
+      </c>
+      <c r="I103" t="n">
+        <v>242</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4194,18 +4073,21 @@
         <v>233</v>
       </c>
       <c r="G104" t="n">
-        <v>14535.31536454622</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>242</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4227,18 +4109,21 @@
         <v>3170.0667</v>
       </c>
       <c r="G105" t="n">
-        <v>14535.31536454622</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>242</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4260,18 +4145,21 @@
         <v>156.486</v>
       </c>
       <c r="G106" t="n">
-        <v>14378.82936454622</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>242</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4293,18 +4181,23 @@
         <v>195.7275</v>
       </c>
       <c r="G107" t="n">
-        <v>14378.82936454622</v>
+        <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>246</v>
+      </c>
+      <c r="I107" t="n">
+        <v>242</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4326,18 +4219,23 @@
         <v>46306.1214</v>
       </c>
       <c r="G108" t="n">
-        <v>-31927.29203545378</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>246</v>
+      </c>
+      <c r="I108" t="n">
+        <v>242</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4359,18 +4257,23 @@
         <v>811.1944999999999</v>
       </c>
       <c r="G109" t="n">
-        <v>-31116.09753545378</v>
+        <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>245.3</v>
+      </c>
+      <c r="I109" t="n">
+        <v>242</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4392,18 +4295,21 @@
         <v>507.1255</v>
       </c>
       <c r="G110" t="n">
-        <v>-30608.97203545378</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>242</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4425,18 +4331,21 @@
         <v>160.9148</v>
       </c>
       <c r="G111" t="n">
-        <v>-30769.88683545378</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>242</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4458,18 +4367,21 @@
         <v>22.3283</v>
       </c>
       <c r="G112" t="n">
-        <v>-30769.88683545378</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>242</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4491,18 +4403,21 @@
         <v>1897.3697</v>
       </c>
       <c r="G113" t="n">
-        <v>-28872.51713545378</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>242</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4524,18 +4439,21 @@
         <v>125.5237</v>
       </c>
       <c r="G114" t="n">
-        <v>-28746.99343545378</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>242</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4557,22 +4475,21 @@
         <v>68.105</v>
       </c>
       <c r="G115" t="n">
-        <v>-28678.88843545378</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>249</v>
-      </c>
-      <c r="J115" t="n">
-        <v>249</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4594,24 +4511,21 @@
         <v>132.0396</v>
       </c>
       <c r="G116" t="n">
-        <v>-28678.88843545378</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>249</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>242</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4633,26 +4547,21 @@
         <v>204.2041</v>
       </c>
       <c r="G117" t="n">
-        <v>-28678.88843545378</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>249</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4674,22 +4583,21 @@
         <v>97</v>
       </c>
       <c r="G118" t="n">
-        <v>-28581.88843545378</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4711,26 +4619,21 @@
         <v>155</v>
       </c>
       <c r="G119" t="n">
-        <v>-28426.88843545378</v>
-      </c>
-      <c r="H119" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="n">
-        <v>250.2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4752,26 +4655,21 @@
         <v>3700</v>
       </c>
       <c r="G120" t="n">
-        <v>-24726.88843545378</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
-        <v>251.1</v>
-      </c>
-      <c r="J120" t="n">
-        <v>250.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4793,22 +4691,21 @@
         <v>722.7939</v>
       </c>
       <c r="G121" t="n">
-        <v>-24004.09453545378</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="J121" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4830,26 +4727,21 @@
         <v>261.3836</v>
       </c>
       <c r="G122" t="n">
-        <v>-24265.47813545378</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="n">
-        <v>253</v>
-      </c>
-      <c r="J122" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4871,26 +4763,21 @@
         <v>171.0195</v>
       </c>
       <c r="G123" t="n">
-        <v>-24436.49763545378</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="n">
-        <v>252.1</v>
-      </c>
-      <c r="J123" t="n">
-        <v>252.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4912,22 +4799,21 @@
         <v>171</v>
       </c>
       <c r="G124" t="n">
-        <v>-24265.49763545378</v>
-      </c>
-      <c r="H124" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="n">
-        <v>252</v>
-      </c>
-      <c r="J124" t="n">
-        <v>252</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4949,26 +4835,21 @@
         <v>3.9825</v>
       </c>
       <c r="G125" t="n">
-        <v>-24269.48013545378</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="n">
-        <v>252.4</v>
-      </c>
-      <c r="J125" t="n">
-        <v>252</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4990,26 +4871,21 @@
         <v>252.2963</v>
       </c>
       <c r="G126" t="n">
-        <v>-24017.18383545378</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
-        <v>249.2</v>
-      </c>
-      <c r="J126" t="n">
-        <v>252</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5031,22 +4907,21 @@
         <v>900</v>
       </c>
       <c r="G127" t="n">
-        <v>-24017.18383545378</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="J127" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5068,24 +4943,21 @@
         <v>261.3836</v>
       </c>
       <c r="G128" t="n">
-        <v>-23755.80023545377</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>242</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5107,26 +4979,21 @@
         <v>1382.0169</v>
       </c>
       <c r="G129" t="n">
-        <v>-22373.78333545378</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="n">
-        <v>255.4</v>
-      </c>
-      <c r="J129" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5148,26 +5015,21 @@
         <v>710.9831</v>
       </c>
       <c r="G130" t="n">
-        <v>-22373.78333545378</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
-        <v>256</v>
-      </c>
-      <c r="J130" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5189,24 +5051,21 @@
         <v>131.0393</v>
       </c>
       <c r="G131" t="n">
-        <v>-22242.74403545378</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>242</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5228,24 +5087,21 @@
         <v>10661.0031</v>
       </c>
       <c r="G132" t="n">
-        <v>-11581.74093545378</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>242</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5267,24 +5123,21 @@
         <v>4901.8806</v>
       </c>
       <c r="G133" t="n">
-        <v>-6679.860335453775</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>242</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5306,24 +5159,21 @@
         <v>853.5382</v>
       </c>
       <c r="G134" t="n">
-        <v>-7533.398535453775</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>242</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5345,24 +5195,21 @@
         <v>2200</v>
       </c>
       <c r="G135" t="n">
-        <v>-5333.398535453775</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>242</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5384,24 +5231,21 @@
         <v>869</v>
       </c>
       <c r="G136" t="n">
-        <v>-6202.398535453775</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>242</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5423,24 +5267,21 @@
         <v>6909.5247</v>
       </c>
       <c r="G137" t="n">
-        <v>707.1261645462246</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>242</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5462,24 +5303,21 @@
         <v>50</v>
       </c>
       <c r="G138" t="n">
-        <v>707.1261645462246</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>242</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5501,24 +5339,21 @@
         <v>4177.0531</v>
       </c>
       <c r="G139" t="n">
-        <v>-3469.926935453776</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>242</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5540,24 +5375,21 @@
         <v>1920.3168</v>
       </c>
       <c r="G140" t="n">
-        <v>-5390.243735453776</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>242</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5579,24 +5411,21 @@
         <v>5</v>
       </c>
       <c r="G141" t="n">
-        <v>-5395.243735453776</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>242</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5618,24 +5447,21 @@
         <v>3031.9095</v>
       </c>
       <c r="G142" t="n">
-        <v>-2363.334235453776</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>242</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5657,24 +5483,21 @@
         <v>209.3419</v>
       </c>
       <c r="G143" t="n">
-        <v>-2572.676135453776</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>242</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5696,24 +5519,21 @@
         <v>682.4400000000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-3255.116135453776</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>242</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5735,24 +5555,21 @@
         <v>568.5951</v>
       </c>
       <c r="G145" t="n">
-        <v>-3823.711235453776</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>242</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5774,24 +5591,21 @@
         <v>400</v>
       </c>
       <c r="G146" t="n">
-        <v>-4223.711235453776</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>242</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5813,24 +5627,21 @@
         <v>734.8074</v>
       </c>
       <c r="G147" t="n">
-        <v>-3488.903835453776</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>242</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5852,24 +5663,21 @@
         <v>585.6721</v>
       </c>
       <c r="G148" t="n">
-        <v>-3488.903835453776</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>242</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5891,24 +5699,21 @@
         <v>987.343</v>
       </c>
       <c r="G149" t="n">
-        <v>-2501.560835453776</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>242</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5930,24 +5735,21 @@
         <v>5</v>
       </c>
       <c r="G150" t="n">
-        <v>-2506.560835453776</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>242</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5969,24 +5771,21 @@
         <v>118.4621</v>
       </c>
       <c r="G151" t="n">
-        <v>-2388.098735453776</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>242</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6008,24 +5807,21 @@
         <v>141.6855</v>
       </c>
       <c r="G152" t="n">
-        <v>-2246.413235453776</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>242</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6047,24 +5843,21 @@
         <v>1509.4528</v>
       </c>
       <c r="G153" t="n">
-        <v>-2246.413235453776</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>242</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6086,24 +5879,21 @@
         <v>380.114</v>
       </c>
       <c r="G154" t="n">
-        <v>-2246.413235453776</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>242</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6125,24 +5915,21 @@
         <v>2862.7415</v>
       </c>
       <c r="G155" t="n">
-        <v>-2246.413235453776</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>242</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6164,24 +5951,21 @@
         <v>2099.4563</v>
       </c>
       <c r="G156" t="n">
-        <v>-146.9569354537757</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>242</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6203,24 +5987,21 @@
         <v>9586.762199999999</v>
       </c>
       <c r="G157" t="n">
-        <v>9439.805264546223</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>242</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6242,24 +6023,21 @@
         <v>1903.714</v>
       </c>
       <c r="G158" t="n">
-        <v>9439.805264546223</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>242</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6281,24 +6059,21 @@
         <v>4173.1749</v>
       </c>
       <c r="G159" t="n">
-        <v>9439.805264546223</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>242</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6320,24 +6095,21 @@
         <v>600.9646</v>
       </c>
       <c r="G160" t="n">
-        <v>9439.805264546223</v>
-      </c>
-      <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>255.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1.021243634939287</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>242</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6359,18 +6131,21 @@
         <v>250</v>
       </c>
       <c r="G161" t="n">
-        <v>9689.805264546223</v>
-      </c>
-      <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>242</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6392,18 +6167,23 @@
         <v>12.9675</v>
       </c>
       <c r="G162" t="n">
-        <v>9676.837764546222</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>242</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1.077644628099174</v>
+      </c>
       <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>1.045798319327731</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6425,18 +6205,15 @@
         <v>679.7272</v>
       </c>
       <c r="G163" t="n">
-        <v>9676.837764546222</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6458,18 +6235,15 @@
         <v>305</v>
       </c>
       <c r="G164" t="n">
-        <v>9981.837764546222</v>
-      </c>
-      <c r="H164" t="n">
         <v>2</v>
       </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6491,18 +6265,15 @@
         <v>1210</v>
       </c>
       <c r="G165" t="n">
-        <v>9981.837764546222</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6524,18 +6295,15 @@
         <v>1305</v>
       </c>
       <c r="G166" t="n">
-        <v>11286.83776454622</v>
-      </c>
-      <c r="H166" t="n">
         <v>2</v>
       </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6557,18 +6325,15 @@
         <v>1662</v>
       </c>
       <c r="G167" t="n">
-        <v>12948.83776454622</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
